--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA4\Desktop\Game\JapanGameContest2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA4\Desktop\Game\JapanGameContest2023\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="257">
   <si>
     <t>・移動</t>
     <rPh sb="1" eb="3">
@@ -3168,29 +3168,6 @@
     <rPh sb="2" eb="4">
       <t>ソンザイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　・ゴールが2つ以上のステージで、片方がゴールした時、おとりファイルが残り続ける</t>
-    <rPh sb="8" eb="10">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>カタホウ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ノコ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>ツヅ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　・コストオーバーでブルスク</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -3569,23 +3546,35 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3599,25 +3588,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27593,171 +27570,173 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13" t="s">
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13" t="s">
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="18"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="22"/>
     </row>
     <row r="3" spans="2:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26" t="s">
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="19" t="s">
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="20"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="24"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15" t="s">
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15" t="s">
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="21"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="25"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15" t="s">
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="22" t="s">
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="23"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="26"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22" t="s">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="15" t="s">
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15" t="s">
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="21"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="25"/>
     </row>
     <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="16" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16" t="s">
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="17"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="20"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
         <v>219</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.4">
@@ -27768,23 +27747,17 @@
         <v>207</v>
       </c>
       <c r="K11" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
         <v>220</v>
       </c>
-      <c r="K12" t="s">
-        <v>253</v>
-      </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
         <v>221</v>
-      </c>
-      <c r="K13" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.4">
@@ -27816,7 +27789,7 @@
         <v>223</v>
       </c>
       <c r="K19" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.4">
@@ -27824,7 +27797,7 @@
         <v>225</v>
       </c>
       <c r="K20" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.4">
@@ -27893,6 +27866,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -27904,19 +27890,6 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="259">
   <si>
     <t>・移動</t>
     <rPh sb="1" eb="3">
@@ -3213,6 +3213,26 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>ナオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・感染したアニメーションが後ろにある</t>
+    <rPh sb="2" eb="4">
+      <t>カンセン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ウシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・主人公を浮かす</t>
+    <rPh sb="2" eb="5">
+      <t>シュジンコウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3546,35 +3566,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3588,13 +3596,25 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27570,166 +27590,164 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21" t="s">
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="22"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="18"/>
     </row>
     <row r="3" spans="2:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15" t="s">
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="23" t="s">
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="24"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="20"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17" t="s">
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17" t="s">
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="25"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="21"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17" t="s">
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="16" t="s">
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="26"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="23"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16" t="s">
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="17" t="s">
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17" t="s">
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="25"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="21"/>
     </row>
     <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="12" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12" t="s">
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="20"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="17"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
@@ -27804,10 +27822,16 @@
       <c r="C21" t="s">
         <v>224</v>
       </c>
+      <c r="K21" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C22" t="s">
         <v>246</v>
+      </c>
+      <c r="K22" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.4">
@@ -27866,19 +27890,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -27890,6 +27901,19 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="257">
   <si>
     <t>・移動</t>
     <rPh sb="1" eb="3">
@@ -3184,35 +3184,9 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>　・おとりファイルや感染ファイルの描画順変更</t>
-    <rPh sb="10" eb="12">
-      <t>カンセン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ビョウガ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ジュン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>調整中のバグ</t>
     <rPh sb="0" eb="3">
       <t>チョウセイチュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　・ゴール置き直し</t>
-    <rPh sb="5" eb="6">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ナオ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3566,23 +3540,35 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3596,25 +3582,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27596,165 +27570,165 @@
   <sheetData>
     <row r="1" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13" t="s">
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13" t="s">
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="18"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="22"/>
     </row>
     <row r="3" spans="2:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26" t="s">
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="19" t="s">
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="20"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="24"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15" t="s">
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15" t="s">
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="21"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="25"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15" t="s">
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="22" t="s">
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="23"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="26"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22" t="s">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="15" t="s">
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15" t="s">
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="21"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="25"/>
     </row>
     <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="16" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16" t="s">
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="17"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="20"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
         <v>219</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.4">
@@ -27763,9 +27737,6 @@
       </c>
       <c r="C11" t="s">
         <v>207</v>
-      </c>
-      <c r="K11" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.4">
@@ -27815,7 +27786,7 @@
         <v>225</v>
       </c>
       <c r="K20" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.4">
@@ -27823,15 +27794,12 @@
         <v>224</v>
       </c>
       <c r="K21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C22" t="s">
         <v>246</v>
-      </c>
-      <c r="K22" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.4">
@@ -27890,6 +27858,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -27901,19 +27882,6 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="255">
   <si>
     <t>・移動</t>
     <rPh sb="1" eb="3">
@@ -3171,32 +3171,9 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>　・ウイルスの移動中はツールバーのボタンが反応しないように</t>
-    <rPh sb="7" eb="9">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ハンノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>調整中のバグ</t>
     <rPh sb="0" eb="3">
       <t>チョウセイチュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　・感染したアニメーションが後ろにある</t>
-    <rPh sb="2" eb="4">
-      <t>カンセン</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ウシ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3540,35 +3517,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3582,13 +3547,25 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27570,165 +27547,165 @@
   <sheetData>
     <row r="1" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21" t="s">
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="22"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="18"/>
     </row>
     <row r="3" spans="2:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15" t="s">
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="23" t="s">
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="24"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="20"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17" t="s">
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17" t="s">
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="25"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="21"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17" t="s">
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="16" t="s">
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="26"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="23"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16" t="s">
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="17" t="s">
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17" t="s">
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="25"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="21"/>
     </row>
     <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="12" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12" t="s">
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="20"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="17"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
         <v>219</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.4">
@@ -27737,6 +27714,9 @@
       </c>
       <c r="C11" t="s">
         <v>207</v>
+      </c>
+      <c r="K11" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.4">
@@ -27777,24 +27757,15 @@
       <c r="C19" t="s">
         <v>223</v>
       </c>
-      <c r="K19" t="s">
-        <v>253</v>
-      </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
         <v>225</v>
       </c>
-      <c r="K20" t="s">
-        <v>255</v>
-      </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
         <v>224</v>
-      </c>
-      <c r="K21" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.4">
@@ -27858,19 +27829,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -27882,6 +27840,19 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="258">
   <si>
     <t>・移動</t>
     <rPh sb="1" eb="3">
@@ -2600,10 +2600,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ブルースクリーン</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>マウス置き換え(おとりファイル)</t>
     <rPh sb="3" eb="4">
       <t>オ</t>
@@ -2974,16 +2970,6 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>タイキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>表情変化</t>
-    <rPh sb="0" eb="2">
-      <t>ヒョウジョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヘンカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2996,10 +2982,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>エフェクトや演出</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>・シーン移動</t>
     <rPh sb="4" eb="6">
       <t>イドウ</t>
@@ -3178,12 +3160,54 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>　・主人公を浮かす</t>
-    <rPh sb="2" eb="5">
-      <t>シュジンコウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ウ</t>
+    <t>ブルースクリーンのコメント調整</t>
+    <rPh sb="13" eb="15">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クリック時のエフェクトや演出</t>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>おとりファイルのエフェクトや演出</t>
+    <rPh sb="14" eb="16">
+      <t>エンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フォルダとゴールの演出</t>
+    <rPh sb="9" eb="11">
+      <t>エンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・オブジェクトとブロックが重なった時はモードチェンジができてしまう</t>
+    <rPh sb="14" eb="15">
+      <t>カサ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・アニメーションのレイヤー調整</t>
+    <rPh sb="14" eb="16">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・ファイルが増殖する</t>
+    <rPh sb="7" eb="9">
+      <t>ゾウショク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3480,7 +3504,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3517,23 +3541,32 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3547,25 +3580,19 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27547,288 +27574,309 @@
   <sheetData>
     <row r="1" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13" t="s">
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="18"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="21"/>
     </row>
     <row r="3" spans="2:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26" t="s">
-        <v>229</v>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15" t="s">
+        <v>228</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26" t="s">
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="23"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B4" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="24"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B5" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="19" t="s">
-        <v>200</v>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17" t="s">
+        <v>201</v>
       </c>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="20"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="25"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B4" s="14" t="s">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B6" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="24"/>
+    </row>
+    <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15" t="s">
-        <v>195</v>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="28" t="s">
+        <v>251</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="21"/>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B5" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="23"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="21"/>
-    </row>
-    <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="17"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="29"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K11" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
+        <v>209</v>
+      </c>
+      <c r="C18" t="s">
         <v>210</v>
       </c>
-      <c r="C18" t="s">
-        <v>211</v>
-      </c>
       <c r="K18" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
-        <v>223</v>
+        <v>222</v>
+      </c>
+      <c r="K19" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
-        <v>225</v>
+        <v>224</v>
+      </c>
+      <c r="K20" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C22" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B24" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C30" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C31" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C34" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -27840,19 +27888,6 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28113,12 +28148,12 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -28203,7 +28238,7 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -28213,12 +28248,12 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -28378,22 +28413,22 @@
     </row>
     <row r="44" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -29051,7 +29086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A115"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -29087,22 +29122,22 @@
     </row>
     <row r="93" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A93" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="257">
   <si>
     <t>・移動</t>
     <rPh sb="1" eb="3">
@@ -3184,16 +3184,6 @@
     <t>フォルダとゴールの演出</t>
     <rPh sb="9" eb="11">
       <t>エンシュツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　・オブジェクトとブロックが重なった時はモードチェンジができてしまう</t>
-    <rPh sb="14" eb="15">
-      <t>カサ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>トキ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3541,32 +3531,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3580,19 +3561,28 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27574,160 +27564,160 @@
   <sheetData>
     <row r="1" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20" t="s">
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="21"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="18"/>
     </row>
     <row r="3" spans="2:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15" t="s">
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15" t="s">
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="22" t="s">
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="23"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="20"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17" t="s">
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17" t="s">
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="24"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="21"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17" t="s">
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="16" t="s">
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="25"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="23"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16" t="s">
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="17" t="s">
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17" t="s">
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="24"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="21"/>
     </row>
     <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14" t="s">
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="12" t="s">
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="28" t="s">
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="29"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="17"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
@@ -27743,9 +27733,6 @@
       </c>
       <c r="C11" t="s">
         <v>206</v>
-      </c>
-      <c r="K11" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.4">
@@ -27787,7 +27774,7 @@
         <v>222</v>
       </c>
       <c r="K19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.4">
@@ -27795,7 +27782,7 @@
         <v>224</v>
       </c>
       <c r="K20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.4">
@@ -27864,19 +27851,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -27888,6 +27862,19 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="263">
   <si>
     <t>・移動</t>
     <rPh sb="1" eb="3">
@@ -3198,6 +3198,90 @@
     <t>　・ファイルが増殖する</t>
     <rPh sb="7" eb="9">
       <t>ゾウショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイル感染時：「ウイルスがファイルに感染しました。」「ファイルのデータが盗まれました。」</t>
+    <rPh sb="4" eb="7">
+      <t>カンセンジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カンセン</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ヌス</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ウイルス落下時：「ウイルスが範囲外に出ました。」「ウイルスを自由にしてしまいました。」</t>
+    <rPh sb="4" eb="7">
+      <t>ラッカジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジユウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コスト上限時：「CPUオーバーロードエラーが発生しました。」「オブジェクトを出しすぎです。」</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウゲン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ヒント1：「オブジェクトは増やせます。」「オブジェクトはコピーできます。」</t>
+    <rPh sb="13" eb="14">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ヒント2：「オブジェクトはサイズを変えれます。」「オブジェクトは拡大縮小できます。」</t>
+    <rPh sb="17" eb="18">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カクダイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シュクショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ヒント3：「ページは複数個あります。」「ページ切り替えができます。」</t>
+    <rPh sb="10" eb="12">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3531,16 +3615,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3548,6 +3644,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3561,28 +3660,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -20806,8 +20890,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6361579" y="9301443"/>
-          <a:ext cx="5709051" cy="2935382"/>
+          <a:off x="6381750" y="9410700"/>
+          <a:ext cx="5726980" cy="2969000"/>
           <a:chOff x="6391275" y="8886825"/>
           <a:chExt cx="5726980" cy="2969000"/>
         </a:xfrm>
@@ -22153,8 +22237,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5754221" y="14186087"/>
-          <a:ext cx="5709050" cy="2935382"/>
+          <a:off x="5772150" y="14354175"/>
+          <a:ext cx="5726980" cy="2969000"/>
           <a:chOff x="6391275" y="8886825"/>
           <a:chExt cx="5726980" cy="2969000"/>
         </a:xfrm>
@@ -25795,8 +25879,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13926670" y="22285699"/>
-          <a:ext cx="4829735" cy="2344271"/>
+          <a:off x="13971494" y="22549037"/>
+          <a:ext cx="4845423" cy="2372286"/>
           <a:chOff x="13837024" y="22868404"/>
           <a:chExt cx="4829735" cy="2344271"/>
         </a:xfrm>
@@ -27564,160 +27648,160 @@
   <sheetData>
     <row r="1" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13" t="s">
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13" t="s">
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="18"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="23"/>
     </row>
     <row r="3" spans="2:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27" t="s">
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="19" t="s">
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="20"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="25"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15" t="s">
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15" t="s">
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="21"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="26"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15" t="s">
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="22" t="s">
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="23"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="27"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22" t="s">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="15" t="s">
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15" t="s">
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="21"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="26"/>
     </row>
     <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="24" t="s">
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="16" t="s">
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="17"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="21"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
@@ -27851,6 +27935,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -27862,19 +27959,6 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29071,9 +29155,9 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A115"/>
+  <dimension ref="A1:V115"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -29102,12 +29186,42 @@
         <v>134</v>
       </c>
     </row>
-    <row r="77" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="93" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="V79" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="V80" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="V81" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="V83" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="V84" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="V85" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A93" s="2" t="s">
         <v>245</v>
       </c>

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA4\Desktop\Game\JapanGameContest2023\仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\Game\4年\GameContest2023\JapanGameContest2023\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12C3E10-A1C2-4CD8-8363-D434CCF789D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="注意事項" sheetId="2" r:id="rId1"/>
@@ -3289,7 +3290,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3578,7 +3579,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3612,8 +3613,41 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3627,46 +3661,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4010,7 +4008,7 @@
         <xdr:cNvPr id="8" name="図 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B27C36FA-8923-05F3-59DE-B54E6B52B089}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4060,7 +4058,7 @@
         <xdr:cNvPr id="10" name="図 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99A57621-67A2-E371-1676-67DFEFF61115}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4110,7 +4108,7 @@
         <xdr:cNvPr id="13" name="矢印: 右 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E078DED-481F-CE89-8D21-FD0838F68755}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4176,7 +4174,7 @@
         <xdr:cNvPr id="14" name="図 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE8CAD2A-5457-420F-9494-69C841B1DF3F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4226,7 +4224,7 @@
         <xdr:cNvPr id="15" name="図 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BB9C1C8-0DD9-4080-929B-A047A30AE843}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4276,7 +4274,7 @@
         <xdr:cNvPr id="16" name="矢印: 右 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A654CEC-61DE-4222-A4A0-C3FED63FFF55}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4342,7 +4340,7 @@
         <xdr:cNvPr id="18" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F21E149-264C-4A70-463A-DE41057931E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4398,7 +4396,7 @@
         <xdr:cNvPr id="19" name="楕円 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E2C0703-26E5-854D-53EF-BC15E442F228}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4464,7 +4462,7 @@
         <xdr:cNvPr id="20" name="楕円 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FD9C8FA-6D79-606A-EE30-707E2728A79D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4530,7 +4528,7 @@
         <xdr:cNvPr id="21" name="矢印: 右 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEEBB541-4ECA-2DE2-E53B-791C7242A719}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4596,7 +4594,7 @@
         <xdr:cNvPr id="22" name="図 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FC3969D-7E67-25DA-8063-48CDD7AB6C62}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4646,7 +4644,7 @@
         <xdr:cNvPr id="23" name="楕円 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A6F7F15-280C-5546-8BF1-A6A62AF10DAB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4712,7 +4710,7 @@
         <xdr:cNvPr id="24" name="図 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{458FEF8B-BA22-1D75-4F44-2698A4AE5F4E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4762,7 +4760,7 @@
         <xdr:cNvPr id="25" name="矢印: 右 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A99D377F-2D9A-1889-8E60-694B3B324D8F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4823,7 +4821,7 @@
         <xdr:cNvPr id="26" name="図 25" descr="ごみ箱のファイルの自動削除と期間の設定 [Windows10] | JOHOBASE">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39043500-8022-482F-AAAD-5CEB07D4A368}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4895,7 +4893,7 @@
         <xdr:cNvPr id="27" name="図 26" descr="すみっコぐらしofficial web site プロフィール">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCDF4CE3-FCB5-435B-8736-0AEF515E0687}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4963,7 +4961,7 @@
         <xdr:cNvPr id="28" name="矢印: 右 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2410E4F1-BF0A-4FAC-9155-5F861D8D798C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5024,7 +5022,7 @@
         <xdr:cNvPr id="29" name="図 28" descr="ごみ箱のファイルの自動削除と期間の設定 [Windows10] | JOHOBASE">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D902D1B4-2A50-41F0-AEC9-887BF8BF9C9B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5096,7 +5094,7 @@
         <xdr:cNvPr id="30" name="矢印: 右 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E85BC615-720B-4476-9AAC-BBCA3377E8E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5162,7 +5160,7 @@
         <xdr:cNvPr id="31" name="グループ化 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C76531A5-C129-411F-93CC-ED180B8FDDAC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5170,8 +5168,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5928361" y="18127677"/>
-          <a:ext cx="1400175" cy="1638602"/>
+          <a:off x="5806441" y="17403777"/>
+          <a:ext cx="1369695" cy="1571927"/>
           <a:chOff x="12134850" y="14182422"/>
           <a:chExt cx="1400175" cy="1638602"/>
         </a:xfrm>
@@ -5181,7 +5179,7 @@
           <xdr:cNvPr id="32" name="図 31" descr="ごみ箱のファイルの自動削除と期間の設定 [Windows10] | JOHOBASE">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08C50F20-57DC-FBBD-6877-FEFE98417F54}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000020000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5238,7 +5236,7 @@
           <xdr:cNvPr id="33" name="図 32" descr="すみっコぐらしofficial web site プロフィール">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8350D1C-2099-1520-1696-F9E74943BE51}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000021000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5302,7 +5300,7 @@
         <xdr:cNvPr id="34" name="図 33" descr="爆発の煙イラストのフリー素材｜イラストイメージ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{515B1452-A491-4A38-8750-AE7137464CD5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5379,7 +5377,7 @@
         <xdr:cNvPr id="35" name="図 34" descr="フラットなフォルダのイラスト | SOZAIC.com">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF92C76D-51C0-48EE-A7BB-FAAA25C3ED30}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5449,7 +5447,7 @@
         <xdr:cNvPr id="36" name="矢印: 右 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2E162DE-8776-4146-A851-A7F7AA35CFC4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5515,7 +5513,7 @@
         <xdr:cNvPr id="37" name="矢印: 右 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68ADC51E-57BB-4223-AC0A-8826316F3A1B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5581,7 +5579,7 @@
         <xdr:cNvPr id="38" name="図 37" descr="すみっコぐらしofficial web site プロフィール">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A063BAB6-C539-4137-890C-B5CAAC98A628}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5644,7 +5642,7 @@
         <xdr:cNvPr id="39" name="図 38" descr="フラットなフォルダのイラスト | SOZAIC.com">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BF3FB09-1DFF-4AD2-93E5-8A80B6B98594}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5709,7 +5707,7 @@
         <xdr:cNvPr id="40" name="図 39" descr="爆発の煙イラストのフリー素材｜イラストイメージ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A10322DA-0B45-492F-AFFC-352A3E9EE439}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5791,7 +5789,7 @@
         <xdr:cNvPr id="41" name="グループ化 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AB09948-9ADE-448C-A82B-A46328998BEE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5799,8 +5797,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6621781" y="20857845"/>
-          <a:ext cx="2254103" cy="1885949"/>
+          <a:off x="6484621" y="20029170"/>
+          <a:ext cx="2208383" cy="1809749"/>
           <a:chOff x="21002625" y="13639800"/>
           <a:chExt cx="2254103" cy="1885949"/>
         </a:xfrm>
@@ -5810,7 +5808,7 @@
           <xdr:cNvPr id="42" name="図 41" descr="フラットなフォルダのイラスト | SOZAIC.com">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4E61E6B-7558-7550-A72F-0B69CC50823D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5865,7 +5863,7 @@
           <xdr:cNvPr id="43" name="図 42" descr="すみっコぐらしofficial web site プロフィール">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8455C767-21FF-EAAA-D470-F85667DABBD1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5929,7 +5927,7 @@
         <xdr:cNvPr id="44" name="図 43" descr="【オブジェクト・エフェクト】毒のエフェクト 透過素材 4カラー | 七三ゆきのアトリエ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2D9550A-0AAC-4FBD-AD25-6F16B256FC4D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5999,7 +5997,7 @@
         <xdr:cNvPr id="45" name="図 44" descr="【オブジェクト・エフェクト】毒のエフェクト 透過素材 4カラー | 七三ゆきのアトリエ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4809BC3-6A07-4D83-9086-FC9FF811F3DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6074,7 +6072,7 @@
         <xdr:cNvPr id="46" name="グループ化 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BEB9AD8-EA16-4949-BFAA-3DC4724F6B97}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6082,8 +6080,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="365760" y="15131415"/>
-          <a:ext cx="5257801" cy="2324101"/>
+          <a:off x="365760" y="14531340"/>
+          <a:ext cx="5135881" cy="2228851"/>
           <a:chOff x="723899" y="13554074"/>
           <a:chExt cx="5257801" cy="2800351"/>
         </a:xfrm>
@@ -6093,7 +6091,7 @@
           <xdr:cNvPr id="47" name="図 46" descr="すみっコぐらしofficial web site プロフィール">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE884E58-73D9-8723-75EC-0BF5431FCEBA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6148,7 +6146,7 @@
           <xdr:cNvPr id="48" name="図 47" descr="すみっコぐらしofficial web site プロフィール">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E0D11F9-1766-3697-566F-FD96C82D195F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000030000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6203,7 +6201,7 @@
           <xdr:cNvPr id="49" name="図 48" descr="すみっコぐらしofficial web site プロフィール">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BC44053-1AC7-5957-22D9-054F9B0B8E9A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000031000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6258,7 +6256,7 @@
           <xdr:cNvPr id="50" name="矢印: 右 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{917B5710-9ADC-B5B1-3ECA-0141B33DD386}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000032000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6309,7 +6307,7 @@
           <xdr:cNvPr id="51" name="矢印: 右 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{469C1586-F165-5259-A7AD-F41D5FFA8F29}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000033000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6572,8 +6570,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20954" y="5099685"/>
-          <a:ext cx="3116581" cy="1905000"/>
+          <a:off x="20954" y="4899660"/>
+          <a:ext cx="3055621" cy="1828800"/>
           <a:chOff x="68579" y="3489960"/>
           <a:chExt cx="3055621" cy="1828800"/>
         </a:xfrm>
@@ -6696,8 +6694,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="104775" y="12281535"/>
-          <a:ext cx="7208520" cy="2244090"/>
+          <a:off x="104775" y="11795760"/>
+          <a:ext cx="7056120" cy="2148840"/>
           <a:chOff x="152400" y="6766560"/>
           <a:chExt cx="7056120" cy="2209800"/>
         </a:xfrm>
@@ -7142,8 +7140,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="47625" y="16510636"/>
-          <a:ext cx="9934575" cy="1922463"/>
+          <a:off x="47625" y="15853411"/>
+          <a:ext cx="9721215" cy="1846263"/>
           <a:chOff x="47625" y="13862686"/>
           <a:chExt cx="9934575" cy="1922463"/>
         </a:xfrm>
@@ -8118,8 +8116,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="49529" y="7528561"/>
-          <a:ext cx="6684424" cy="2505076"/>
+          <a:off x="49529" y="7233286"/>
+          <a:ext cx="6547264" cy="2400301"/>
           <a:chOff x="49529" y="7157086"/>
           <a:chExt cx="6684424" cy="2505076"/>
         </a:xfrm>
@@ -9053,8 +9051,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="220980" y="703217"/>
-          <a:ext cx="7842069" cy="4241074"/>
+          <a:off x="220980" y="670560"/>
+          <a:ext cx="7782197" cy="3947160"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3947160"/>
         </a:xfrm>
@@ -10088,8 +10086,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="228600" y="19482707"/>
-          <a:ext cx="7842069" cy="4275365"/>
+          <a:off x="228600" y="18192750"/>
+          <a:ext cx="7782197" cy="3981451"/>
           <a:chOff x="228600" y="12992100"/>
           <a:chExt cx="7901940" cy="4152901"/>
         </a:xfrm>
@@ -10646,8 +10644,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9149443" y="19482707"/>
-          <a:ext cx="7845878" cy="4232872"/>
+          <a:off x="9078686" y="18192750"/>
+          <a:ext cx="7786007" cy="3955286"/>
           <a:chOff x="9220200" y="12992100"/>
           <a:chExt cx="7905750" cy="4118610"/>
         </a:xfrm>
@@ -11592,8 +11590,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="266700" y="24400329"/>
-          <a:ext cx="7842069" cy="4275365"/>
+          <a:off x="266700" y="22783800"/>
+          <a:ext cx="7782197" cy="3981451"/>
           <a:chOff x="228600" y="12992100"/>
           <a:chExt cx="7901940" cy="4152901"/>
         </a:xfrm>
@@ -12165,8 +12163,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9149443" y="24390804"/>
-          <a:ext cx="7842068" cy="4275365"/>
+          <a:off x="9078686" y="22774275"/>
+          <a:ext cx="7782197" cy="3981451"/>
           <a:chOff x="228600" y="12992100"/>
           <a:chExt cx="7901940" cy="4152901"/>
         </a:xfrm>
@@ -12738,8 +12736,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10738757" y="26858772"/>
-          <a:ext cx="2788104" cy="1502391"/>
+          <a:off x="10657114" y="25078958"/>
+          <a:ext cx="2766332" cy="1404419"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3939540"/>
         </a:xfrm>
@@ -12982,8 +12980,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="18078450" y="24379918"/>
-          <a:ext cx="7842068" cy="4265839"/>
+          <a:off x="17936935" y="22763389"/>
+          <a:ext cx="7776755" cy="3980634"/>
           <a:chOff x="228600" y="12992100"/>
           <a:chExt cx="7901940" cy="4152901"/>
         </a:xfrm>
@@ -13446,8 +13444,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="18983325" y="25174455"/>
-          <a:ext cx="5889852" cy="3173804"/>
+          <a:off x="18836368" y="23508941"/>
+          <a:ext cx="5840866" cy="2961532"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3939540"/>
         </a:xfrm>
@@ -13812,8 +13810,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="27195234" y="24359506"/>
-          <a:ext cx="7829552" cy="4215492"/>
+          <a:off x="26982962" y="22742977"/>
+          <a:ext cx="7764239" cy="3937907"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3939540"/>
         </a:xfrm>
@@ -14813,8 +14811,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20289950" y="28369192"/>
-          <a:ext cx="320820" cy="237714"/>
+          <a:off x="20132107" y="26491406"/>
+          <a:ext cx="315378" cy="221386"/>
           <a:chOff x="18484453" y="23336250"/>
           <a:chExt cx="325072" cy="230911"/>
         </a:xfrm>
@@ -15222,8 +15220,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8657084" y="29730932"/>
-          <a:ext cx="2362411" cy="1964077"/>
+          <a:off x="8591769" y="27755175"/>
+          <a:ext cx="2340641" cy="1833448"/>
           <a:chOff x="6551820" y="25135800"/>
           <a:chExt cx="2375218" cy="1887236"/>
         </a:xfrm>
@@ -15473,8 +15471,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12781293" y="29745098"/>
-          <a:ext cx="2362411" cy="1915689"/>
+          <a:off x="12683321" y="27769341"/>
+          <a:ext cx="2340640" cy="1785060"/>
           <a:chOff x="9798768" y="22785525"/>
           <a:chExt cx="2375218" cy="1838848"/>
         </a:xfrm>
@@ -16210,8 +16208,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4455642" y="29718205"/>
-          <a:ext cx="2362411" cy="1915689"/>
+          <a:off x="4422985" y="27742448"/>
+          <a:ext cx="2340640" cy="1785060"/>
           <a:chOff x="3429344" y="22781043"/>
           <a:chExt cx="2375218" cy="1838848"/>
         </a:xfrm>
@@ -18210,8 +18208,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4791074" y="33481735"/>
-          <a:ext cx="2113019" cy="2470230"/>
+          <a:off x="4752974" y="31261049"/>
+          <a:ext cx="2096691" cy="2306945"/>
           <a:chOff x="4819649" y="30708599"/>
           <a:chExt cx="2129348" cy="2402195"/>
         </a:xfrm>
@@ -18565,8 +18563,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8977992" y="33405535"/>
-          <a:ext cx="1690149" cy="1752600"/>
+          <a:off x="8907235" y="31184849"/>
+          <a:ext cx="1679263" cy="1638300"/>
           <a:chOff x="5762624" y="30537149"/>
           <a:chExt cx="1701035" cy="1704975"/>
         </a:xfrm>
@@ -20890,8 +20888,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6381750" y="9410700"/>
-          <a:ext cx="5726980" cy="2969000"/>
+          <a:off x="6244590" y="9039225"/>
+          <a:ext cx="5605060" cy="2847080"/>
           <a:chOff x="6391275" y="8886825"/>
           <a:chExt cx="5726980" cy="2969000"/>
         </a:xfrm>
@@ -22237,8 +22235,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5772150" y="14354175"/>
-          <a:ext cx="5726980" cy="2969000"/>
+          <a:off x="5650230" y="13782675"/>
+          <a:ext cx="5605060" cy="2854700"/>
           <a:chOff x="6391275" y="8886825"/>
           <a:chExt cx="5726980" cy="2969000"/>
         </a:xfrm>
@@ -25096,7 +25094,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="98" name="図 97"/>
+        <xdr:cNvPr id="98" name="図 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000062000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -25137,7 +25141,7 @@
         <xdr:cNvPr id="101" name="正方形/長方形 100">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000076000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000065000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25202,7 +25206,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -25284,7 +25294,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="102" name="テキスト ボックス 101"/>
+        <xdr:cNvPr id="102" name="テキスト ボックス 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000066000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -25343,7 +25359,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -25410,7 +25432,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -25475,7 +25503,7 @@
         <xdr:cNvPr id="100" name="吹き出し: 角を丸めた四角形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00007D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000064000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25583,7 +25611,7 @@
         <xdr:cNvPr id="103" name="吹き出し: 角を丸めた四角形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00007D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000067000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25664,7 +25692,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="104" name="テキスト ボックス 103"/>
+        <xdr:cNvPr id="104" name="テキスト ボックス 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000068000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -25808,7 +25842,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="105" name="テキスト ボックス 104"/>
+        <xdr:cNvPr id="105" name="テキスト ボックス 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000069000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -25874,20 +25914,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="12" name="グループ化 11"/>
+        <xdr:cNvPr id="12" name="グループ化 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13971494" y="22549037"/>
-          <a:ext cx="4845423" cy="2372286"/>
+          <a:off x="13666694" y="21653687"/>
+          <a:ext cx="4738743" cy="2277036"/>
           <a:chOff x="13837024" y="22868404"/>
           <a:chExt cx="4829735" cy="2344271"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="107" name="正方形/長方形 106"/>
+          <xdr:cNvPr id="107" name="正方形/長方形 106">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00006B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -25939,7 +25991,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="112" name="正方形/長方形 111"/>
+          <xdr:cNvPr id="112" name="正方形/長方形 111">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000070000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -25984,7 +26042,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="113" name="正方形/長方形 112"/>
+          <xdr:cNvPr id="113" name="正方形/長方形 112">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000071000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -26036,7 +26100,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="128" name="正方形/長方形 127"/>
+          <xdr:cNvPr id="128" name="正方形/長方形 127">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000080000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -26100,7 +26170,7 @@
         <xdr:cNvPr id="129" name="吹き出し: 角を丸めた四角形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00007D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000081000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27585,49 +27655,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>190</v>
       </c>
@@ -27639,171 +27709,171 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B1:Q34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="28" t="s">
+    <row r="1" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22" t="s">
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="23"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="17"/>
     </row>
-    <row r="3" spans="2:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="18" t="s">
+    <row r="3" spans="2:17" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15" t="s">
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="24" t="s">
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="25"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="19"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B4" s="29" t="s">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B4" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17" t="s">
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="26"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="20"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B5" s="29" t="s">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B5" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17" t="s">
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="16" t="s">
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="27"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="22"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="19" t="s">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B6" s="28" t="s">
         <v>232</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="17" t="s">
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17" t="s">
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="26"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="20"/>
     </row>
-    <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="13" t="s">
+    <row r="7" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B7" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="12" t="s">
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="20" t="s">
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="21"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="16"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B10" s="6" t="s">
         <v>218</v>
       </c>
@@ -27811,7 +27881,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>229</v>
       </c>
@@ -27819,17 +27889,17 @@
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>207</v>
       </c>
@@ -27837,12 +27907,12 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>209</v>
       </c>
@@ -27853,7 +27923,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.45">
       <c r="C19" t="s">
         <v>222</v>
       </c>
@@ -27861,7 +27931,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.45">
       <c r="C20" t="s">
         <v>224</v>
       </c>
@@ -27869,22 +27939,22 @@
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.45">
       <c r="C21" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.45">
       <c r="C22" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B24" s="6" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>212</v>
       </c>
@@ -27892,22 +27962,22 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.45">
       <c r="C26" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.45">
       <c r="C27" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.45">
       <c r="C28" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
         <v>216</v>
       </c>
@@ -27915,17 +27985,17 @@
         <v>217</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.45">
       <c r="C31" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.45">
       <c r="C32" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
         <v>214</v>
       </c>
@@ -27935,19 +28005,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -27959,6 +28016,19 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27967,154 +28037,154 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A39"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -28126,59 +28196,59 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>166</v>
       </c>
@@ -28190,139 +28260,139 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="28" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="31" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>236</v>
       </c>
@@ -28334,170 +28404,170 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AH98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" s="7"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" s="7"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" s="7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" s="7"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" s="7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A65" s="2" t="s">
         <v>240</v>
       </c>
@@ -28535,32 +28605,32 @@
       <c r="AG65" s="1"/>
       <c r="AH65" s="1"/>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>147</v>
       </c>
@@ -28574,297 +28644,297 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A85"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="7"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" s="7"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" s="7"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="7"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" s="7"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" s="7"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" s="7"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" s="7"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" s="7"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" s="7"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" s="7"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" s="7"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" s="7"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" s="7"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40" s="7"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A44" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A45" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A46" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A48" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49" s="7"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52" s="7"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" s="7"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A54" s="7"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A55" s="7"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A56" s="7"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A57" s="7"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A58" s="7"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A62" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="81" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A81" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>12</v>
       </c>
@@ -28878,269 +28948,269 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A136"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A118" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A64" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="74" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A74" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A78" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="120" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A120" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="121" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A121" s="10" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>182</v>
       </c>
@@ -29154,89 +29224,89 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:V115"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="36" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A58" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="77" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A77" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.45">
       <c r="V79" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.45">
       <c r="V80" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.45">
       <c r="V81" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.45">
       <c r="V83" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.45">
       <c r="V84" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.45">
       <c r="V85" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="93" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A93" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>248</v>
       </c>
@@ -29250,14 +29320,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>148</v>
       </c>

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\Game\4年\GameContest2023\JapanGameContest2023\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12C3E10-A1C2-4CD8-8363-D434CCF789D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB5660D-8D01-41F1-8233-5703BF729C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3613,23 +3613,29 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3643,28 +3649,22 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27718,160 +27718,160 @@
   <sheetData>
     <row r="1" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12" t="s">
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12" t="s">
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="17"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="19"/>
     </row>
     <row r="3" spans="2:17" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26" t="s">
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="18" t="s">
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="19"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="21"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14" t="s">
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14" t="s">
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="20"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="22"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14" t="s">
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="21" t="s">
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="22"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="23"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21" t="s">
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="14" t="s">
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14" t="s">
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="20"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="22"/>
     </row>
     <row r="7" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="23" t="s">
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="15" t="s">
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="16"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="26"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B10" s="6" t="s">
@@ -28005,6 +28005,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -28016,19 +28029,6 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\Game\4年\GameContest2023\JapanGameContest2023\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB5660D-8D01-41F1-8233-5703BF729C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0FD051-F816-4BF8-AC7F-6BE1CBD498AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="268">
   <si>
     <t>・移動</t>
     <rPh sb="1" eb="3">
@@ -2965,16 +2965,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>移動や待機アニメーション</t>
-    <rPh sb="0" eb="2">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>タイキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>リザルト(ダイアログボックス)</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -3283,6 +3273,51 @@
     </rPh>
     <rPh sb="25" eb="26">
       <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>やりたいこと</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・アイコンに名前表示</t>
+    <rPh sb="7" eb="9">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>出現/移動/ダメージアニメーション</t>
+    <rPh sb="0" eb="2">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・シーン遷移のアニメーション</t>
+    <rPh sb="5" eb="7">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・フォント変更</t>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・BGM/SE追加</t>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3579,7 +3614,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3613,29 +3648,23 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3649,22 +3678,25 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27718,167 +27750,167 @@
   <sheetData>
     <row r="1" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18" t="s">
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="19"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="17"/>
     </row>
     <row r="3" spans="2:17" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14" t="s">
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14" t="s">
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="20" t="s">
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="21"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="19"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16" t="s">
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="22"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="20"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16" t="s">
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="15" t="s">
-        <v>234</v>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="21" t="s">
+        <v>233</v>
       </c>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="23"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="22"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B6" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="15" t="s">
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="20"/>
+    </row>
+    <row r="7" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B7" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="22"/>
-    </row>
-    <row r="7" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="11" t="s">
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11" t="s">
-        <v>251</v>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15" t="s">
+        <v>250</v>
       </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="26"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="16"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B10" s="6" t="s">
         <v>218</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.45">
@@ -27899,6 +27931,11 @@
         <v>220</v>
       </c>
     </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="K14" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>207</v>
@@ -27906,10 +27943,16 @@
       <c r="C15" t="s">
         <v>208</v>
       </c>
+      <c r="K15" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
         <v>221</v>
+      </c>
+      <c r="K16" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.45">
@@ -27920,7 +27963,7 @@
         <v>210</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.45">
@@ -27928,7 +27971,7 @@
         <v>222</v>
       </c>
       <c r="K19" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.45">
@@ -27936,17 +27979,23 @@
         <v>224</v>
       </c>
       <c r="K20" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.45">
       <c r="C21" t="s">
         <v>223</v>
       </c>
+      <c r="K21" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.45">
       <c r="C22" t="s">
-        <v>243</v>
+        <v>242</v>
+      </c>
+      <c r="K22" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.45">
@@ -28005,19 +28054,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -28029,6 +28065,19 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28289,12 +28338,12 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
@@ -28379,7 +28428,7 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
@@ -28389,12 +28438,12 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -28554,22 +28603,22 @@
     </row>
     <row r="44" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A65" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -29263,52 +29312,52 @@
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.45">
       <c r="V79" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.45">
       <c r="V80" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.45">
       <c r="V81" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.45">
       <c r="V83" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.45">
       <c r="V84" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.45">
       <c r="V85" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="93" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A93" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\Game\4年\GameContest2023\JapanGameContest2023\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0FD051-F816-4BF8-AC7F-6BE1CBD498AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9B3407-7889-4829-BEDE-E7F98857F631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="269">
   <si>
     <t>・移動</t>
     <rPh sb="1" eb="3">
@@ -3318,6 +3318,16 @@
     <t>　・BGM/SE追加</t>
     <rPh sb="8" eb="10">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・ウイルスが逆方向に移動する</t>
+    <rPh sb="7" eb="10">
+      <t>ギャクホウコウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イドウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3648,23 +3658,35 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3678,25 +3700,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27750,160 +27760,160 @@
   <sheetData>
     <row r="1" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12" t="s">
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="17"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="21"/>
     </row>
     <row r="3" spans="2:17" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25" t="s">
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="18" t="s">
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="19"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="23"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14" t="s">
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14" t="s">
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="20"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="24"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14" t="s">
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="21" t="s">
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="22"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="25"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="14" t="s">
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14" t="s">
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="20"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="24"/>
     </row>
     <row r="7" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="15" t="s">
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15" t="s">
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="16"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="19"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B10" s="6" t="s">
@@ -27919,6 +27929,9 @@
       </c>
       <c r="C11" t="s">
         <v>206</v>
+      </c>
+      <c r="K11" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.45">
@@ -28054,6 +28067,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -28065,19 +28091,6 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\Game\4年\GameContest2023\JapanGameContest2023\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9B3407-7889-4829-BEDE-E7F98857F631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0769EAA3-DA0A-4301-940F-E85C5E4FFD76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3658,35 +3658,23 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3700,13 +3688,25 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27760,160 +27760,160 @@
   <sheetData>
     <row r="1" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20" t="s">
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="21"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="17"/>
     </row>
     <row r="3" spans="2:17" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14" t="s">
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14" t="s">
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="22" t="s">
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="23"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="19"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16" t="s">
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="24"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="20"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16" t="s">
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="15" t="s">
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="25"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="22"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="27" t="s">
         <v>264</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="16" t="s">
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16" t="s">
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="24"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="20"/>
     </row>
     <row r="7" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13" t="s">
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="11" t="s">
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11" t="s">
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="19"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="16"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B10" s="6" t="s">
@@ -28067,19 +28067,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -28091,6 +28078,19 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\Game\4年\GameContest2023\JapanGameContest2023\仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA4\Desktop\Game\JapanGameContest2023\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0769EAA3-DA0A-4301-940F-E85C5E4FFD76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="注意事項" sheetId="2" r:id="rId1"/>
@@ -3335,7 +3334,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3658,23 +3657,35 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3688,25 +3699,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5210,8 +5209,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5806441" y="17403777"/>
-          <a:ext cx="1369695" cy="1571927"/>
+          <a:off x="5928361" y="18127677"/>
+          <a:ext cx="1400175" cy="1638602"/>
           <a:chOff x="12134850" y="14182422"/>
           <a:chExt cx="1400175" cy="1638602"/>
         </a:xfrm>
@@ -5839,8 +5838,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6484621" y="20029170"/>
-          <a:ext cx="2208383" cy="1809749"/>
+          <a:off x="6621781" y="20857845"/>
+          <a:ext cx="2254103" cy="1885949"/>
           <a:chOff x="21002625" y="13639800"/>
           <a:chExt cx="2254103" cy="1885949"/>
         </a:xfrm>
@@ -6122,8 +6121,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="365760" y="14531340"/>
-          <a:ext cx="5135881" cy="2228851"/>
+          <a:off x="365760" y="15131415"/>
+          <a:ext cx="5257801" cy="2324101"/>
           <a:chOff x="723899" y="13554074"/>
           <a:chExt cx="5257801" cy="2800351"/>
         </a:xfrm>
@@ -6612,8 +6611,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20954" y="4899660"/>
-          <a:ext cx="3055621" cy="1828800"/>
+          <a:off x="20954" y="5099685"/>
+          <a:ext cx="3116581" cy="1905000"/>
           <a:chOff x="68579" y="3489960"/>
           <a:chExt cx="3055621" cy="1828800"/>
         </a:xfrm>
@@ -6736,8 +6735,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="104775" y="11795760"/>
-          <a:ext cx="7056120" cy="2148840"/>
+          <a:off x="104775" y="12281535"/>
+          <a:ext cx="7208520" cy="2244090"/>
           <a:chOff x="152400" y="6766560"/>
           <a:chExt cx="7056120" cy="2209800"/>
         </a:xfrm>
@@ -7182,8 +7181,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="47625" y="15853411"/>
-          <a:ext cx="9721215" cy="1846263"/>
+          <a:off x="47625" y="16510636"/>
+          <a:ext cx="9934575" cy="1922463"/>
           <a:chOff x="47625" y="13862686"/>
           <a:chExt cx="9934575" cy="1922463"/>
         </a:xfrm>
@@ -8158,8 +8157,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="49529" y="7233286"/>
-          <a:ext cx="6547264" cy="2400301"/>
+          <a:off x="49529" y="7528561"/>
+          <a:ext cx="6684424" cy="2505076"/>
           <a:chOff x="49529" y="7157086"/>
           <a:chExt cx="6684424" cy="2505076"/>
         </a:xfrm>
@@ -9093,8 +9092,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="220980" y="670560"/>
-          <a:ext cx="7782197" cy="3947160"/>
+          <a:off x="220980" y="689610"/>
+          <a:ext cx="7901940" cy="4118610"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3947160"/>
         </a:xfrm>
@@ -10128,8 +10127,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="228600" y="18192750"/>
-          <a:ext cx="7782197" cy="3981451"/>
+          <a:off x="228600" y="18945225"/>
+          <a:ext cx="7901940" cy="4152901"/>
           <a:chOff x="228600" y="12992100"/>
           <a:chExt cx="7901940" cy="4152901"/>
         </a:xfrm>
@@ -10686,8 +10685,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9078686" y="18192750"/>
-          <a:ext cx="7786007" cy="3955286"/>
+          <a:off x="9220200" y="18945225"/>
+          <a:ext cx="7905750" cy="4117211"/>
           <a:chOff x="9220200" y="12992100"/>
           <a:chExt cx="7905750" cy="4118610"/>
         </a:xfrm>
@@ -11632,8 +11631,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="266700" y="22783800"/>
-          <a:ext cx="7782197" cy="3981451"/>
+          <a:off x="266700" y="23726775"/>
+          <a:ext cx="7901940" cy="4152901"/>
           <a:chOff x="228600" y="12992100"/>
           <a:chExt cx="7901940" cy="4152901"/>
         </a:xfrm>
@@ -12205,8 +12204,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9078686" y="22774275"/>
-          <a:ext cx="7782197" cy="3981451"/>
+          <a:off x="9220200" y="23717250"/>
+          <a:ext cx="7901940" cy="4152901"/>
           <a:chOff x="228600" y="12992100"/>
           <a:chExt cx="7901940" cy="4152901"/>
         </a:xfrm>
@@ -12778,8 +12777,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10657114" y="25078958"/>
-          <a:ext cx="2766332" cy="1404419"/>
+          <a:off x="10820400" y="26117183"/>
+          <a:ext cx="2809875" cy="1461569"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3939540"/>
         </a:xfrm>
@@ -13022,8 +13021,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="17936935" y="22763389"/>
-          <a:ext cx="7776755" cy="3980634"/>
+          <a:off x="18219964" y="23706364"/>
+          <a:ext cx="7907383" cy="4150179"/>
           <a:chOff x="228600" y="12992100"/>
           <a:chExt cx="7901940" cy="4152901"/>
         </a:xfrm>
@@ -13486,8 +13485,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="18836368" y="23508941"/>
-          <a:ext cx="5840866" cy="2961532"/>
+          <a:off x="19130282" y="24480491"/>
+          <a:ext cx="5938838" cy="3085357"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3939540"/>
         </a:xfrm>
@@ -13852,8 +13851,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="26982962" y="22742977"/>
-          <a:ext cx="7764239" cy="3937907"/>
+          <a:off x="27407505" y="23685952"/>
+          <a:ext cx="7894867" cy="4099832"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3939540"/>
         </a:xfrm>
@@ -14853,8 +14852,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20132107" y="26491406"/>
-          <a:ext cx="315378" cy="221386"/>
+          <a:off x="20447793" y="27586781"/>
+          <a:ext cx="326263" cy="230911"/>
           <a:chOff x="18484453" y="23336250"/>
           <a:chExt cx="325072" cy="230911"/>
         </a:xfrm>
@@ -15262,8 +15261,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8591769" y="27755175"/>
-          <a:ext cx="2340641" cy="1833448"/>
+          <a:off x="8722398" y="28907700"/>
+          <a:ext cx="2384183" cy="1909648"/>
           <a:chOff x="6551820" y="25135800"/>
           <a:chExt cx="2375218" cy="1887236"/>
         </a:xfrm>
@@ -15513,8 +15512,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12683321" y="27769341"/>
-          <a:ext cx="2340640" cy="1785060"/>
+          <a:off x="12879264" y="28921866"/>
+          <a:ext cx="2384183" cy="1861260"/>
           <a:chOff x="9798768" y="22785525"/>
           <a:chExt cx="2375218" cy="1838848"/>
         </a:xfrm>
@@ -16250,8 +16249,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4422985" y="27742448"/>
-          <a:ext cx="2340640" cy="1785060"/>
+          <a:off x="4488299" y="28894973"/>
+          <a:ext cx="2384183" cy="1861260"/>
           <a:chOff x="3429344" y="22781043"/>
           <a:chExt cx="2375218" cy="1838848"/>
         </a:xfrm>
@@ -18250,8 +18249,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4752974" y="31261049"/>
-          <a:ext cx="2096691" cy="2306945"/>
+          <a:off x="4829174" y="32556449"/>
+          <a:ext cx="2129348" cy="2402195"/>
           <a:chOff x="4819649" y="30708599"/>
           <a:chExt cx="2129348" cy="2402195"/>
         </a:xfrm>
@@ -18605,8 +18604,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8907235" y="31184849"/>
-          <a:ext cx="1679263" cy="1638300"/>
+          <a:off x="9048749" y="32480249"/>
+          <a:ext cx="1701035" cy="1704975"/>
           <a:chOff x="5762624" y="30537149"/>
           <a:chExt cx="1701035" cy="1704975"/>
         </a:xfrm>
@@ -19588,14 +19587,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>244471</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:colOff>215896</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>228003</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:colOff>352424</xdr:colOff>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -19626,7 +19625,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="244471" y="4752378"/>
+          <a:off x="215896" y="4990503"/>
           <a:ext cx="5622928" cy="3162897"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -20930,8 +20929,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6244590" y="9039225"/>
-          <a:ext cx="5605060" cy="2847080"/>
+          <a:off x="6381750" y="9410700"/>
+          <a:ext cx="5726980" cy="2969000"/>
           <a:chOff x="6391275" y="8886825"/>
           <a:chExt cx="5726980" cy="2969000"/>
         </a:xfrm>
@@ -22277,8 +22276,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5650230" y="13782675"/>
-          <a:ext cx="5605060" cy="2854700"/>
+          <a:off x="5772150" y="14354175"/>
+          <a:ext cx="5726980" cy="2969000"/>
           <a:chOff x="6391275" y="8886825"/>
           <a:chExt cx="5726980" cy="2969000"/>
         </a:xfrm>
@@ -25967,8 +25966,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13666694" y="21653687"/>
-          <a:ext cx="4738743" cy="2277036"/>
+          <a:off x="13971494" y="22549037"/>
+          <a:ext cx="4845423" cy="2372286"/>
           <a:chOff x="13837024" y="22868404"/>
           <a:chExt cx="4829735" cy="2344271"/>
         </a:xfrm>
@@ -27697,49 +27696,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>190</v>
       </c>
@@ -27751,171 +27750,171 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="11" t="s">
+    <row r="1" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12" t="s">
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="17"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="21"/>
     </row>
-    <row r="3" spans="2:17" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="26" t="s">
+    <row r="3" spans="2:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25" t="s">
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="18" t="s">
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="19"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="23"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B4" s="13" t="s">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B4" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14" t="s">
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14" t="s">
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="20"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="24"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B5" s="13" t="s">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B5" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14" t="s">
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="21" t="s">
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="22"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="25"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B6" s="27" t="s">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B6" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="14" t="s">
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14" t="s">
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="20"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="24"/>
     </row>
-    <row r="7" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="23" t="s">
+    <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="15" t="s">
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15" t="s">
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="16"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="19"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
         <v>218</v>
       </c>
@@ -27923,7 +27922,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>229</v>
       </c>
@@ -27934,22 +27933,25 @@
         <v>268</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
         <v>219</v>
       </c>
+      <c r="K12" t="s">
+        <v>265</v>
+      </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.4">
       <c r="K14" s="6" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>207</v>
       </c>
@@ -27960,7 +27962,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
         <v>221</v>
       </c>
@@ -27968,7 +27970,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>209</v>
       </c>
@@ -27979,7 +27981,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
         <v>222</v>
       </c>
@@ -27987,36 +27989,33 @@
         <v>263</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
         <v>224</v>
       </c>
       <c r="K20" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
         <v>223</v>
       </c>
       <c r="K21" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C22" t="s">
         <v>242</v>
       </c>
-      <c r="K22" t="s">
-        <v>267</v>
-      </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B24" s="6" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>212</v>
       </c>
@@ -28024,22 +28023,22 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C26" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C28" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>216</v>
       </c>
@@ -28047,17 +28046,17 @@
         <v>217</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C31" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C32" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>214</v>
       </c>
@@ -28067,6 +28066,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -28078,19 +28090,6 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28099,154 +28098,154 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A39"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -28258,59 +28257,59 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>166</v>
       </c>
@@ -28322,139 +28321,139 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="28" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="31" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>235</v>
       </c>
@@ -28466,170 +28465,170 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="8" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" s="7"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" s="7"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" s="7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" s="7"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" s="7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
         <v>239</v>
       </c>
@@ -28667,32 +28666,32 @@
       <c r="AG65" s="1"/>
       <c r="AH65" s="1"/>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>147</v>
       </c>
@@ -28706,297 +28705,297 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A85"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="7"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" s="7"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" s="7"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="7"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" s="7"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" s="7"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" s="7"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" s="7"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" s="7"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" s="7"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" s="7"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" s="7"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" s="7"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" s="7"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A40" s="7"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A42" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A43" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A44" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A45" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A46" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A48" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A49" s="7"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A50" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A51" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A52" s="7"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A53" s="7"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A54" s="7"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A55" s="7"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A56" s="7"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A57" s="7"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A58" s="7"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A62" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="81" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>12</v>
       </c>
@@ -29010,269 +29009,269 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A136"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A118" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A64" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="74" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="120" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A120" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="121" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A121" s="10" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>182</v>
       </c>
@@ -29286,89 +29285,89 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V115"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="36" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="77" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.4">
       <c r="V79" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.4">
       <c r="V80" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.4">
       <c r="V81" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.4">
       <c r="V83" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.4">
       <c r="V84" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.4">
       <c r="V85" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="93" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A93" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>247</v>
       </c>
@@ -29382,14 +29381,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>148</v>
       </c>

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="270">
   <si>
     <t>・移動</t>
     <rPh sb="1" eb="3">
@@ -3327,6 +3327,19 @@
     </rPh>
     <rPh sb="11" eb="13">
       <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・連打でも支持を聞く</t>
+    <rPh sb="2" eb="4">
+      <t>レンダ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シジ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3657,35 +3670,23 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3699,13 +3700,25 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27759,160 +27772,160 @@
   <sheetData>
     <row r="1" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20" t="s">
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="21"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="17"/>
     </row>
     <row r="3" spans="2:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14" t="s">
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14" t="s">
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="22" t="s">
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="23"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="19"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16" t="s">
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="24"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="20"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16" t="s">
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="15" t="s">
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="25"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="22"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="27" t="s">
         <v>264</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="16" t="s">
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16" t="s">
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="24"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="20"/>
     </row>
     <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13" t="s">
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="11" t="s">
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11" t="s">
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="19"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="16"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
@@ -27945,10 +27958,8 @@
       <c r="C13" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="K14" s="6" t="s">
-        <v>248</v>
+      <c r="K13" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.4">
@@ -27958,16 +27969,15 @@
       <c r="C15" t="s">
         <v>208</v>
       </c>
-      <c r="K15" t="s">
-        <v>255</v>
-      </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
         <v>221</v>
       </c>
-      <c r="K16" t="s">
-        <v>254</v>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="K17" s="6" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.4">
@@ -27977,8 +27987,8 @@
       <c r="C18" t="s">
         <v>210</v>
       </c>
-      <c r="K18" s="6" t="s">
-        <v>262</v>
+      <c r="K18" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.4">
@@ -27986,33 +27996,38 @@
         <v>222</v>
       </c>
       <c r="K19" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
         <v>224</v>
       </c>
-      <c r="K20" t="s">
-        <v>266</v>
-      </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
         <v>223</v>
-      </c>
-      <c r="K21" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C22" t="s">
         <v>242</v>
       </c>
+      <c r="K22" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="K23" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B24" s="6" t="s">
         <v>211</v>
+      </c>
+      <c r="K24" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.4">
@@ -28021,6 +28036,9 @@
       </c>
       <c r="C25" t="s">
         <v>213</v>
+      </c>
+      <c r="K25" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.4">
@@ -28066,19 +28084,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -28090,6 +28095,19 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -3670,23 +3670,35 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3700,25 +3712,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27764,178 +27764,184 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q34"/>
+  <dimension ref="B1:S34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="11" t="s">
+    <row r="1" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12" t="s">
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="17"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="21"/>
     </row>
-    <row r="3" spans="2:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="26" t="s">
+    <row r="3" spans="2:19" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25" t="s">
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="18" t="s">
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="19"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="23"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B4" s="13" t="s">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B4" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14" t="s">
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14" t="s">
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="20"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="24"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B5" s="13" t="s">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B5" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14" t="s">
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="21" t="s">
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="22"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="25"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="27" t="s">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B6" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="14" t="s">
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14" t="s">
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="20"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="24"/>
     </row>
-    <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="23" t="s">
+    <row r="7" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="15" t="s">
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15" t="s">
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="16"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="19"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
         <v>218</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>249</v>
       </c>
+      <c r="O10" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>262</v>
+      </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>229</v>
       </c>
@@ -27945,24 +27951,39 @@
       <c r="K11" t="s">
         <v>268</v>
       </c>
+      <c r="O11" t="s">
+        <v>255</v>
+      </c>
+      <c r="S11" t="s">
+        <v>263</v>
+      </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
         <v>219</v>
       </c>
       <c r="K12" t="s">
         <v>265</v>
       </c>
+      <c r="O12" t="s">
+        <v>254</v>
+      </c>
+      <c r="S12" t="s">
+        <v>266</v>
+      </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
         <v>220</v>
       </c>
       <c r="K13" t="s">
         <v>269</v>
       </c>
+      <c r="S13" t="s">
+        <v>267</v>
+      </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>207</v>
       </c>
@@ -27970,93 +27991,68 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="K17" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>209</v>
       </c>
       <c r="C18" t="s">
         <v>210</v>
       </c>
-      <c r="K18" t="s">
-        <v>255</v>
-      </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
         <v>222</v>
       </c>
-      <c r="K19" t="s">
-        <v>254</v>
-      </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C22" t="s">
         <v>242</v>
       </c>
-      <c r="K22" s="6" t="s">
-        <v>262</v>
-      </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="K23" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B24" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="K24" t="s">
-        <v>266</v>
-      </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>212</v>
       </c>
       <c r="C25" t="s">
         <v>213</v>
       </c>
-      <c r="K25" t="s">
-        <v>267</v>
-      </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C26" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C28" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>216</v>
       </c>
@@ -28064,12 +28060,12 @@
         <v>217</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C31" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C32" t="s">
         <v>231</v>
       </c>
@@ -28084,6 +28080,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -28095,19 +28104,6 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -3670,35 +3670,23 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3712,13 +3700,25 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27772,160 +27772,160 @@
   <sheetData>
     <row r="1" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20" t="s">
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="21"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="17"/>
     </row>
     <row r="3" spans="2:19" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14" t="s">
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14" t="s">
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="22" t="s">
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="23"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="19"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16" t="s">
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="24"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="20"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16" t="s">
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="15" t="s">
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="25"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="22"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="27" t="s">
         <v>264</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="16" t="s">
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16" t="s">
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="24"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="20"/>
     </row>
     <row r="7" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13" t="s">
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="11" t="s">
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11" t="s">
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="19"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="16"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
@@ -28080,19 +28080,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -28104,6 +28091,19 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="266">
   <si>
     <t>・移動</t>
     <rPh sb="1" eb="3">
@@ -3178,20 +3178,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>　・アニメーションのレイヤー調整</t>
-    <rPh sb="14" eb="16">
-      <t>チョウセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　・ファイルが増殖する</t>
-    <rPh sb="7" eb="9">
-      <t>ゾウショク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ファイル感染時：「ウイルスがファイルに感染しました。」「ファイルのデータが盗まれました。」</t>
     <rPh sb="4" eb="7">
       <t>カンセンジ</t>
@@ -3317,29 +3303,6 @@
     <t>　・BGM/SE追加</t>
     <rPh sb="8" eb="10">
       <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　・ウイルスが逆方向に移動する</t>
-    <rPh sb="7" eb="10">
-      <t>ギャクホウコウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　・連打でも支持を聞く</t>
-    <rPh sb="2" eb="4">
-      <t>レンダ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シジ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>キ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3670,23 +3633,35 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3700,25 +3675,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27772,160 +27735,160 @@
   <sheetData>
     <row r="1" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12" t="s">
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="17"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="21"/>
     </row>
     <row r="3" spans="2:19" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25" t="s">
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="18" t="s">
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="19"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="23"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14" t="s">
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14" t="s">
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="20"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="24"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14" t="s">
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="21" t="s">
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="22"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="25"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B6" s="27" t="s">
-        <v>264</v>
+      <c r="B6" s="18" t="s">
+        <v>262</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="14" t="s">
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14" t="s">
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="20"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="24"/>
     </row>
     <row r="7" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="15" t="s">
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15" t="s">
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="16"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="19"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
@@ -27938,7 +27901,7 @@
         <v>248</v>
       </c>
       <c r="S10" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.4">
@@ -27949,38 +27912,26 @@
         <v>206</v>
       </c>
       <c r="K11" t="s">
-        <v>268</v>
-      </c>
-      <c r="O11" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="S11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
         <v>219</v>
       </c>
-      <c r="K12" t="s">
-        <v>265</v>
-      </c>
-      <c r="O12" t="s">
-        <v>254</v>
-      </c>
       <c r="S12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
         <v>220</v>
       </c>
-      <c r="K13" t="s">
-        <v>269</v>
-      </c>
       <c r="S13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.4">
@@ -28080,6 +28031,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -28091,19 +28055,6 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29338,32 +29289,32 @@
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.4">
       <c r="V79" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.4">
       <c r="V80" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.4">
       <c r="V81" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.4">
       <c r="V83" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.4">
       <c r="V84" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.4">
       <c r="V85" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="93" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -3599,7 +3599,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3633,35 +3633,23 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3675,13 +3663,31 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27735,160 +27741,160 @@
   <sheetData>
     <row r="1" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20" t="s">
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="21"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="17"/>
     </row>
     <row r="3" spans="2:19" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14" t="s">
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14" t="s">
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="22" t="s">
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="23"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="19"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16" t="s">
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="24"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="29"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16" t="s">
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="15" t="s">
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="25"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="22"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="16" t="s">
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16" t="s">
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="24"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="20"/>
     </row>
     <row r="7" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13" t="s">
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="11" t="s">
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11" t="s">
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="19"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="16"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
@@ -28031,19 +28037,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -28055,6 +28048,19 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="267">
   <si>
     <t>・移動</t>
     <rPh sb="1" eb="3">
@@ -3303,6 +3303,13 @@
     <t>　・BGM/SE追加</t>
     <rPh sb="8" eb="10">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・ツールバーのゲージ触れる</t>
+    <rPh sb="11" eb="12">
+      <t>サワ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3633,40 +3640,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3678,16 +3652,49 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27741,160 +27748,160 @@
   <sheetData>
     <row r="1" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12" t="s">
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="17"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="21"/>
     </row>
     <row r="3" spans="2:19" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25" t="s">
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="18" t="s">
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="19"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="23"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14" t="s">
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="28" t="s">
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="29"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="25"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14" t="s">
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="21" t="s">
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="22"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="26"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="14" t="s">
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14" t="s">
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="20"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="27"/>
     </row>
     <row r="7" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="15" t="s">
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15" t="s">
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="16"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="19"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
@@ -27919,6 +27926,9 @@
       </c>
       <c r="K11" t="s">
         <v>263</v>
+      </c>
+      <c r="O11" t="s">
+        <v>266</v>
       </c>
       <c r="S11" t="s">
         <v>261</v>
@@ -28037,6 +28047,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -28048,19 +28071,6 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA4\Desktop\Game\JapanGameContest2023\仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\Game\4年\GameContest2023\JapanGameContest2023\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C910D550-FD2C-4546-AC98-9845ACFDC93A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="9"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="注意事項" sheetId="2" r:id="rId1"/>
@@ -3317,7 +3318,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3606,7 +3607,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3640,7 +3641,40 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3652,49 +3686,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5198,8 +5193,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5928361" y="18127677"/>
-          <a:ext cx="1400175" cy="1638602"/>
+          <a:off x="5806441" y="17403777"/>
+          <a:ext cx="1369695" cy="1571927"/>
           <a:chOff x="12134850" y="14182422"/>
           <a:chExt cx="1400175" cy="1638602"/>
         </a:xfrm>
@@ -5827,8 +5822,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6621781" y="20857845"/>
-          <a:ext cx="2254103" cy="1885949"/>
+          <a:off x="6484621" y="20029170"/>
+          <a:ext cx="2208383" cy="1809749"/>
           <a:chOff x="21002625" y="13639800"/>
           <a:chExt cx="2254103" cy="1885949"/>
         </a:xfrm>
@@ -6110,8 +6105,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="365760" y="15131415"/>
-          <a:ext cx="5257801" cy="2324101"/>
+          <a:off x="365760" y="14531340"/>
+          <a:ext cx="5135881" cy="2228851"/>
           <a:chOff x="723899" y="13554074"/>
           <a:chExt cx="5257801" cy="2800351"/>
         </a:xfrm>
@@ -6600,8 +6595,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20954" y="5099685"/>
-          <a:ext cx="3116581" cy="1905000"/>
+          <a:off x="20954" y="4899660"/>
+          <a:ext cx="3055621" cy="1828800"/>
           <a:chOff x="68579" y="3489960"/>
           <a:chExt cx="3055621" cy="1828800"/>
         </a:xfrm>
@@ -6724,8 +6719,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="104775" y="12281535"/>
-          <a:ext cx="7208520" cy="2244090"/>
+          <a:off x="104775" y="11795760"/>
+          <a:ext cx="7056120" cy="2148840"/>
           <a:chOff x="152400" y="6766560"/>
           <a:chExt cx="7056120" cy="2209800"/>
         </a:xfrm>
@@ -7170,8 +7165,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="47625" y="16510636"/>
-          <a:ext cx="9934575" cy="1922463"/>
+          <a:off x="47625" y="15853411"/>
+          <a:ext cx="9721215" cy="1846263"/>
           <a:chOff x="47625" y="13862686"/>
           <a:chExt cx="9934575" cy="1922463"/>
         </a:xfrm>
@@ -8146,8 +8141,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="49529" y="7528561"/>
-          <a:ext cx="6684424" cy="2505076"/>
+          <a:off x="49529" y="7233286"/>
+          <a:ext cx="6547264" cy="2400301"/>
           <a:chOff x="49529" y="7157086"/>
           <a:chExt cx="6684424" cy="2505076"/>
         </a:xfrm>
@@ -9081,8 +9076,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="220980" y="689610"/>
-          <a:ext cx="7901940" cy="4118610"/>
+          <a:off x="220980" y="670560"/>
+          <a:ext cx="7734300" cy="3947160"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3947160"/>
         </a:xfrm>
@@ -10116,8 +10111,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="228600" y="18945225"/>
-          <a:ext cx="7901940" cy="4152901"/>
+          <a:off x="228600" y="18192750"/>
+          <a:ext cx="7734300" cy="3981451"/>
           <a:chOff x="228600" y="12992100"/>
           <a:chExt cx="7901940" cy="4152901"/>
         </a:xfrm>
@@ -10674,8 +10669,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9220200" y="18945225"/>
-          <a:ext cx="7905750" cy="4117211"/>
+          <a:off x="9022080" y="18192750"/>
+          <a:ext cx="7738110" cy="3955286"/>
           <a:chOff x="9220200" y="12992100"/>
           <a:chExt cx="7905750" cy="4118610"/>
         </a:xfrm>
@@ -11620,8 +11615,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="266700" y="23726775"/>
-          <a:ext cx="7901940" cy="4152901"/>
+          <a:off x="266700" y="22783800"/>
+          <a:ext cx="7734300" cy="3981451"/>
           <a:chOff x="228600" y="12992100"/>
           <a:chExt cx="7901940" cy="4152901"/>
         </a:xfrm>
@@ -12193,8 +12188,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9220200" y="23717250"/>
-          <a:ext cx="7901940" cy="4152901"/>
+          <a:off x="9022080" y="22774275"/>
+          <a:ext cx="7734300" cy="3981451"/>
           <a:chOff x="228600" y="12992100"/>
           <a:chExt cx="7901940" cy="4152901"/>
         </a:xfrm>
@@ -12766,8 +12761,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10820400" y="26117183"/>
-          <a:ext cx="2809875" cy="1461569"/>
+          <a:off x="10591800" y="25078958"/>
+          <a:ext cx="2748915" cy="1404419"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3939540"/>
         </a:xfrm>
@@ -13010,8 +13005,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="18219964" y="23706364"/>
-          <a:ext cx="7907383" cy="4150179"/>
+          <a:off x="17823724" y="22763389"/>
+          <a:ext cx="7724503" cy="3980634"/>
           <a:chOff x="228600" y="12992100"/>
           <a:chExt cx="7901940" cy="4152901"/>
         </a:xfrm>
@@ -13474,8 +13469,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="19130282" y="24480491"/>
-          <a:ext cx="5938838" cy="3085357"/>
+          <a:off x="18718802" y="23508941"/>
+          <a:ext cx="5801678" cy="2961532"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3939540"/>
         </a:xfrm>
@@ -13840,8 +13835,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="27407505" y="23685952"/>
-          <a:ext cx="7894867" cy="4099832"/>
+          <a:off x="26813145" y="22742977"/>
+          <a:ext cx="7711987" cy="3937907"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3939540"/>
         </a:xfrm>
@@ -14841,8 +14836,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20447793" y="27586781"/>
-          <a:ext cx="326263" cy="230911"/>
+          <a:off x="20005833" y="26491406"/>
+          <a:ext cx="311023" cy="221386"/>
           <a:chOff x="18484453" y="23336250"/>
           <a:chExt cx="325072" cy="230911"/>
         </a:xfrm>
@@ -15250,8 +15245,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8722398" y="28907700"/>
-          <a:ext cx="2384183" cy="1909648"/>
+          <a:off x="8539518" y="27755175"/>
+          <a:ext cx="2323223" cy="1833448"/>
           <a:chOff x="6551820" y="25135800"/>
           <a:chExt cx="2375218" cy="1887236"/>
         </a:xfrm>
@@ -15501,8 +15496,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12879264" y="28921866"/>
-          <a:ext cx="2384183" cy="1861260"/>
+          <a:off x="12604944" y="27769341"/>
+          <a:ext cx="2323223" cy="1785060"/>
           <a:chOff x="9798768" y="22785525"/>
           <a:chExt cx="2375218" cy="1838848"/>
         </a:xfrm>
@@ -16238,8 +16233,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4488299" y="28894973"/>
-          <a:ext cx="2384183" cy="1861260"/>
+          <a:off x="4396859" y="27742448"/>
+          <a:ext cx="2323223" cy="1785060"/>
           <a:chOff x="3429344" y="22781043"/>
           <a:chExt cx="2375218" cy="1838848"/>
         </a:xfrm>
@@ -18238,8 +18233,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4829174" y="32556449"/>
-          <a:ext cx="2129348" cy="2402195"/>
+          <a:off x="4722494" y="31261049"/>
+          <a:ext cx="2083628" cy="2306945"/>
           <a:chOff x="4819649" y="30708599"/>
           <a:chExt cx="2129348" cy="2402195"/>
         </a:xfrm>
@@ -18593,8 +18588,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9048749" y="32480249"/>
-          <a:ext cx="1701035" cy="1704975"/>
+          <a:off x="8850629" y="31184849"/>
+          <a:ext cx="1670555" cy="1638300"/>
           <a:chOff x="5762624" y="30537149"/>
           <a:chExt cx="1701035" cy="1704975"/>
         </a:xfrm>
@@ -20918,8 +20913,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6381750" y="9410700"/>
-          <a:ext cx="5726980" cy="2969000"/>
+          <a:off x="6244590" y="9039225"/>
+          <a:ext cx="5605060" cy="2847080"/>
           <a:chOff x="6391275" y="8886825"/>
           <a:chExt cx="5726980" cy="2969000"/>
         </a:xfrm>
@@ -22265,8 +22260,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5772150" y="14354175"/>
-          <a:ext cx="5726980" cy="2969000"/>
+          <a:off x="5650230" y="13782675"/>
+          <a:ext cx="5605060" cy="2854700"/>
           <a:chOff x="6391275" y="8886825"/>
           <a:chExt cx="5726980" cy="2969000"/>
         </a:xfrm>
@@ -25955,8 +25950,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13971494" y="22549037"/>
-          <a:ext cx="4845423" cy="2372286"/>
+          <a:off x="13666694" y="21653687"/>
+          <a:ext cx="4738743" cy="2277036"/>
           <a:chOff x="13837024" y="22868404"/>
           <a:chExt cx="4829735" cy="2344271"/>
         </a:xfrm>
@@ -27685,49 +27680,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>190</v>
       </c>
@@ -27739,171 +27734,171 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B1:S34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="28" t="s">
+    <row r="1" spans="2:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20" t="s">
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="21"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="17"/>
     </row>
-    <row r="3" spans="2:19" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="17" t="s">
+    <row r="3" spans="2:19" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14" t="s">
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14" t="s">
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="22" t="s">
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="23"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="19"/>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B4" s="29" t="s">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B4" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="24" t="s">
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="25"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="22"/>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B5" s="29" t="s">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B5" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16" t="s">
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="15" t="s">
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="26"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="21"/>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B6" s="18" t="s">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B6" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15" t="s">
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="16" t="s">
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16" t="s">
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="27"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="22"/>
     </row>
-    <row r="7" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="12" t="s">
+    <row r="7" spans="2:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B7" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13" t="s">
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="11" t="s">
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11" t="s">
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="19"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="16"/>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B10" s="6" t="s">
         <v>218</v>
       </c>
@@ -27917,7 +27912,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>229</v>
       </c>
@@ -27934,7 +27929,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
         <v>219</v>
       </c>
@@ -27942,7 +27937,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
         <v>220</v>
       </c>
@@ -27950,7 +27945,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>207</v>
       </c>
@@ -27958,12 +27953,12 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>209</v>
       </c>
@@ -27971,32 +27966,32 @@
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C19" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C20" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C21" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C22" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B24" s="6" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>212</v>
       </c>
@@ -28004,22 +27999,22 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C26" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C27" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C28" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
         <v>216</v>
       </c>
@@ -28027,17 +28022,17 @@
         <v>217</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C31" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C32" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
         <v>214</v>
       </c>
@@ -28047,19 +28042,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -28071,6 +28053,19 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28079,154 +28074,154 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A39"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -28238,59 +28233,59 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>166</v>
       </c>
@@ -28302,139 +28297,139 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="28" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="31" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>235</v>
       </c>
@@ -28446,170 +28441,170 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AH98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" s="7"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" s="7"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" s="7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" s="7"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" s="7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A65" s="2" t="s">
         <v>239</v>
       </c>
@@ -28647,32 +28642,32 @@
       <c r="AG65" s="1"/>
       <c r="AH65" s="1"/>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>147</v>
       </c>
@@ -28686,297 +28681,297 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A85"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="7"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" s="7"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" s="7"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="7"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" s="7"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" s="7"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" s="7"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" s="7"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" s="7"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" s="7"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" s="7"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" s="7"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" s="7"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" s="7"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40" s="7"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A44" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A45" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A46" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A48" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49" s="7"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52" s="7"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" s="7"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A54" s="7"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A55" s="7"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A56" s="7"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A57" s="7"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A58" s="7"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A62" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="81" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A81" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>12</v>
       </c>
@@ -28990,269 +28985,269 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A136"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A64" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="74" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A74" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A78" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="120" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A120" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="121" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A121" s="10" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>182</v>
       </c>
@@ -29266,89 +29261,89 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:V115"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="36" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A58" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="77" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A77" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.45">
       <c r="V79" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.45">
       <c r="V80" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.45">
       <c r="V81" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.45">
       <c r="V83" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.45">
       <c r="V84" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.45">
       <c r="V85" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="93" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A93" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>247</v>
       </c>
@@ -29362,14 +29357,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>148</v>
       </c>

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\Game\4年\GameContest2023\JapanGameContest2023\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C910D550-FD2C-4546-AC98-9845ACFDC93A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0439B593-025E-4CF8-A11C-D7D55086BE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3172,13 +3172,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>フォルダとゴールの演出</t>
-    <rPh sb="9" eb="11">
-      <t>エンシュツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ファイル感染時：「ウイルスがファイルに感染しました。」「ファイルのデータが盗まれました。」</t>
     <rPh sb="4" eb="7">
       <t>カンセンジ</t>
@@ -3277,23 +3270,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>出現/移動/ダメージアニメーション</t>
-    <rPh sb="0" eb="2">
-      <t>シュツゲン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　・シーン遷移のアニメーション</t>
-    <rPh sb="5" eb="7">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>　・フォント変更</t>
     <rPh sb="6" eb="8">
       <t>ヘンコウ</t>
@@ -3308,9 +3284,109 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>　・ツールバーのゲージ触れる</t>
-    <rPh sb="11" eb="12">
-      <t>サワ</t>
+    <t>　・シーン遷移演出</t>
+    <rPh sb="5" eb="7">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>エンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>出現</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>移動</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/ダメージアニメーション</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>フォルダ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>とゴールの演出</t>
+    </r>
+    <rPh sb="9" eb="11">
+      <t>エンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・タイトルのパスワード欄の見た目</t>
+    <rPh sb="12" eb="13">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>メ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3641,23 +3717,29 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3668,28 +3750,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27743,160 +27819,160 @@
   <sheetData>
     <row r="1" spans="2:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12" t="s">
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12" t="s">
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="17"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="19"/>
     </row>
     <row r="3" spans="2:19" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25" t="s">
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="18" t="s">
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="19"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="21"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14" t="s">
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14" t="s">
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
       <c r="Q4" s="22"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14" t="s">
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="20" t="s">
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="21"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="23"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B6" s="27" t="s">
-        <v>262</v>
+      <c r="B6" s="26" t="s">
+        <v>264</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="14" t="s">
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14" t="s">
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
       <c r="Q6" s="22"/>
     </row>
     <row r="7" spans="2:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="23" t="s">
-        <v>253</v>
+      <c r="B7" s="27" t="s">
+        <v>265</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="15" t="s">
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15" t="s">
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="16"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="17"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B10" s="6" t="s">
@@ -27909,7 +27985,7 @@
         <v>248</v>
       </c>
       <c r="S10" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.45">
@@ -27919,14 +27995,11 @@
       <c r="C11" t="s">
         <v>206</v>
       </c>
-      <c r="K11" t="s">
-        <v>263</v>
-      </c>
       <c r="O11" t="s">
         <v>266</v>
       </c>
       <c r="S11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.45">
@@ -27934,7 +28007,7 @@
         <v>219</v>
       </c>
       <c r="S12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.45">
@@ -27942,7 +28015,12 @@
         <v>220</v>
       </c>
       <c r="S13" t="s">
-        <v>265</v>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="S14" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.45">
@@ -28042,6 +28120,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -28053,19 +28144,6 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29300,32 +29378,32 @@
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.45">
       <c r="V79" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.45">
       <c r="V80" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.45">
       <c r="V81" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.45">
       <c r="V83" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.45">
       <c r="V84" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.45">
       <c r="V85" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="93" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.45">

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\Game\4年\GameContest2023\JapanGameContest2023\仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA4\Desktop\Game\JapanGameContest2023\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0439B593-025E-4CF8-A11C-D7D55086BE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="注意事項" sheetId="2" r:id="rId1"/>
@@ -3394,7 +3393,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3717,29 +3716,23 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3753,19 +3746,25 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27756,49 +27755,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>190</v>
       </c>
@@ -27810,171 +27809,171 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="2:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="24" t="s">
+    <row r="1" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18" t="s">
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="19"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="17"/>
     </row>
-    <row r="3" spans="2:19" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="16" t="s">
+    <row r="3" spans="2:19" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13" t="s">
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13" t="s">
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="20" t="s">
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="21"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="19"/>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B4" s="25" t="s">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B4" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15" t="s">
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="22"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="20"/>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B5" s="25" t="s">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B5" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15" t="s">
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="14" t="s">
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="23"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="22"/>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B6" s="26" t="s">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B6" s="27" t="s">
         <v>264</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="15" t="s">
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15" t="s">
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="22"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="20"/>
     </row>
-    <row r="7" spans="2:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="27" t="s">
+    <row r="7" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12" t="s">
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="11" t="s">
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11" t="s">
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="17"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="16"/>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
         <v>218</v>
       </c>
@@ -27988,7 +27987,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>229</v>
       </c>
@@ -28002,7 +28001,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
         <v>219</v>
       </c>
@@ -28010,7 +28009,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
         <v>220</v>
       </c>
@@ -28018,12 +28017,12 @@
         <v>261</v>
       </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.4">
       <c r="S14" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>207</v>
       </c>
@@ -28031,12 +28030,12 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>209</v>
       </c>
@@ -28044,32 +28043,32 @@
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C22" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B24" s="6" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>212</v>
       </c>
@@ -28077,22 +28076,22 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C26" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C28" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>216</v>
       </c>
@@ -28100,17 +28099,17 @@
         <v>217</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C31" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C32" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>214</v>
       </c>
@@ -28120,19 +28119,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -28144,6 +28130,19 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28152,154 +28151,154 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A39"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -28311,59 +28310,59 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>166</v>
       </c>
@@ -28375,139 +28374,139 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="28" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="31" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>235</v>
       </c>
@@ -28519,170 +28518,170 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="8" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" s="7"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" s="7"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" s="7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" s="7"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" s="7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
         <v>239</v>
       </c>
@@ -28720,32 +28719,32 @@
       <c r="AG65" s="1"/>
       <c r="AH65" s="1"/>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>147</v>
       </c>
@@ -28759,297 +28758,297 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A85"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="7"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" s="7"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" s="7"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="7"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" s="7"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" s="7"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" s="7"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" s="7"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" s="7"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" s="7"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" s="7"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" s="7"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" s="7"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" s="7"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A40" s="7"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A42" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A43" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A44" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A45" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A46" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A48" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A49" s="7"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A50" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A51" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A52" s="7"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A53" s="7"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A54" s="7"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A55" s="7"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A56" s="7"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A57" s="7"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A58" s="7"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A62" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="81" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>12</v>
       </c>
@@ -29063,269 +29062,269 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A136"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A64" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="74" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="120" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A120" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="121" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A121" s="10" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>182</v>
       </c>
@@ -29339,89 +29338,89 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V115"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="36" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="77" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.4">
       <c r="V79" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.4">
       <c r="V80" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.4">
       <c r="V81" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.4">
       <c r="V83" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.4">
       <c r="V84" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.4">
       <c r="V85" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="93" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A93" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>247</v>
       </c>
@@ -29435,14 +29434,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>148</v>
       </c>

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -3377,15 +3377,9 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>　・タイトルのパスワード欄の見た目</t>
-    <rPh sb="12" eb="13">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>メ</t>
+    <t>　・ロード演出</t>
+    <rPh sb="5" eb="7">
+      <t>エンシュツ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3682,7 +3676,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3716,40 +3710,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3761,10 +3722,40 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27818,160 +27809,160 @@
   <sheetData>
     <row r="1" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12" t="s">
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="17"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="21"/>
     </row>
     <row r="3" spans="2:19" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25" t="s">
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="18" t="s">
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="19"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="26"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14" t="s">
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14" t="s">
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="20"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="22"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14" t="s">
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="21" t="s">
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="22"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="23"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="14" t="s">
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14" t="s">
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="20"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="22"/>
     </row>
     <row r="7" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="15" t="s">
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15" t="s">
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="16"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="19"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
@@ -27994,7 +27985,7 @@
       <c r="C11" t="s">
         <v>206</v>
       </c>
-      <c r="O11" t="s">
+      <c r="K11" t="s">
         <v>266</v>
       </c>
       <c r="S11" t="s">
@@ -28119,6 +28110,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -28130,19 +28134,6 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -3710,7 +3710,40 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3719,43 +3752,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27809,160 +27809,160 @@
   <sheetData>
     <row r="1" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20" t="s">
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="21"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="17"/>
     </row>
     <row r="3" spans="2:19" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14" t="s">
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="26"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="19"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16" t="s">
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="22"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="20"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16" t="s">
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="15" t="s">
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="23"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="22"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="16" t="s">
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16" t="s">
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="22"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="20"/>
     </row>
     <row r="7" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13" t="s">
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="11" t="s">
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11" t="s">
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="19"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="16"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
@@ -28110,19 +28110,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -28134,6 +28121,19 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="265">
   <si>
     <t>・移動</t>
     <rPh sb="1" eb="3">
@@ -3283,16 +3283,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>　・シーン遷移演出</t>
-    <rPh sb="5" eb="7">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>エンシュツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <strike/>
@@ -3372,13 +3362,6 @@
       <t>とゴールの演出</t>
     </r>
     <rPh sb="9" eb="11">
-      <t>エンシュツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　・ロード演出</t>
-    <rPh sb="5" eb="7">
       <t>エンシュツ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -3710,40 +3693,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3752,10 +3702,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27809,160 +27792,160 @@
   <sheetData>
     <row r="1" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12" t="s">
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="17"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="21"/>
     </row>
     <row r="3" spans="2:19" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18" t="s">
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18" t="s">
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="19"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="22"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14" t="s">
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14" t="s">
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="20"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="23"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14" t="s">
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="21" t="s">
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="22"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="24"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="23"/>
+    </row>
+    <row r="7" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21" t="s">
-        <v>251</v>
-      </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="20"/>
-    </row>
-    <row r="7" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="15" t="s">
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15" t="s">
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="16"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="19"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
@@ -27985,9 +27968,6 @@
       <c r="C11" t="s">
         <v>206</v>
       </c>
-      <c r="K11" t="s">
-        <v>266</v>
-      </c>
       <c r="S11" t="s">
         <v>260</v>
       </c>
@@ -27997,7 +27977,7 @@
         <v>219</v>
       </c>
       <c r="S12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.4">
@@ -28005,11 +27985,6 @@
         <v>220</v>
       </c>
       <c r="S13" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="S14" t="s">
         <v>262</v>
       </c>
     </row>
@@ -28110,6 +28085,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -28121,19 +28109,6 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="268">
   <si>
     <t>・移動</t>
     <rPh sb="1" eb="3">
@@ -3363,6 +3363,42 @@
     </r>
     <rPh sb="9" eb="11">
       <t>エンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・移動中にモードを変えれないことを教える</t>
+    <rPh sb="2" eb="5">
+      <t>イドウチュウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・重なった時にモードを変えれないことを教える</t>
+    <rPh sb="2" eb="3">
+      <t>カサ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・オープニングを作る</t>
+    <rPh sb="9" eb="10">
+      <t>ツク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3693,7 +3729,40 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3702,43 +3771,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27792,160 +27828,160 @@
   <sheetData>
     <row r="1" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20" t="s">
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="21"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="17"/>
     </row>
     <row r="3" spans="2:19" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14" t="s">
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="22"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="19"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16" t="s">
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="23"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="20"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16" t="s">
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="15" t="s">
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="24"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="22"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="16" t="s">
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16" t="s">
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="23"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="20"/>
     </row>
     <row r="7" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13" t="s">
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="11" t="s">
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11" t="s">
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="19"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="16"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
@@ -27995,13 +28031,24 @@
       <c r="C15" t="s">
         <v>208</v>
       </c>
+      <c r="S15" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
         <v>221</v>
       </c>
+      <c r="S16" t="s">
+        <v>266</v>
+      </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="S17" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>209</v>
       </c>
@@ -28009,32 +28056,32 @@
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.4">
       <c r="C22" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B24" s="6" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>212</v>
       </c>
@@ -28042,22 +28089,22 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.4">
       <c r="C26" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.4">
       <c r="C28" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>216</v>
       </c>
@@ -28065,12 +28112,12 @@
         <v>217</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.4">
       <c r="C31" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.4">
       <c r="C32" t="s">
         <v>231</v>
       </c>
@@ -28085,19 +28132,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -28109,6 +28143,19 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="269">
   <si>
     <t>・移動</t>
     <rPh sb="1" eb="3">
@@ -3398,6 +3398,13 @@
   <si>
     <t>　・オープニングを作る</t>
     <rPh sb="9" eb="10">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・スタートメニューからシャットダウンを作る</t>
+    <rPh sb="20" eb="21">
       <t>ツク</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -3729,40 +3736,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3771,10 +3745,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27828,160 +27835,160 @@
   <sheetData>
     <row r="1" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12" t="s">
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12" t="s">
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="17"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="20"/>
     </row>
     <row r="3" spans="2:19" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18" t="s">
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18" t="s">
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="19"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="21"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14" t="s">
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14" t="s">
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="20"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="22"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14" t="s">
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="21" t="s">
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="22"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="23"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B6" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21" t="s">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="14" t="s">
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14" t="s">
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="20"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="22"/>
     </row>
     <row r="7" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="15" t="s">
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15" t="s">
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="16"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="18"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
@@ -28054,6 +28061,9 @@
       </c>
       <c r="C18" t="s">
         <v>210</v>
+      </c>
+      <c r="S18" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.4">
@@ -28132,6 +28142,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -28143,19 +28166,6 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="268">
   <si>
     <t>・移動</t>
     <rPh sb="1" eb="3">
@@ -3265,13 +3265,6 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　・フォント変更</t>
-    <rPh sb="6" eb="8">
-      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3736,7 +3729,40 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3745,40 +3771,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -27835,160 +27828,160 @@
   <sheetData>
     <row r="1" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19" t="s">
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="20"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="17"/>
     </row>
     <row r="3" spans="2:19" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14" t="s">
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="21"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="19"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16" t="s">
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="22"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="20"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16" t="s">
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="15" t="s">
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="23"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="22"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B6" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="20"/>
+    </row>
+    <row r="7" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="22"/>
-    </row>
-    <row r="7" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13" t="s">
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="11" t="s">
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11" t="s">
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="18"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="16"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
@@ -28011,24 +28004,21 @@
       <c r="C11" t="s">
         <v>206</v>
       </c>
+      <c r="K11" t="s">
+        <v>260</v>
+      </c>
       <c r="S11" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
         <v>219</v>
       </c>
-      <c r="S12" t="s">
-        <v>261</v>
-      </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
         <v>220</v>
-      </c>
-      <c r="S13" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.4">
@@ -28039,7 +28029,7 @@
         <v>208</v>
       </c>
       <c r="S15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.4">
@@ -28047,12 +28037,12 @@
         <v>221</v>
       </c>
       <c r="S16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.4">
       <c r="S17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.4">
@@ -28063,7 +28053,7 @@
         <v>210</v>
       </c>
       <c r="S18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.4">
@@ -28142,19 +28132,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -28166,6 +28143,19 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -3729,40 +3729,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3771,10 +3738,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27828,160 +27828,160 @@
   <sheetData>
     <row r="1" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12" t="s">
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="17"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="21"/>
     </row>
     <row r="3" spans="2:19" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18" t="s">
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18" t="s">
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="19"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="22"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14" t="s">
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14" t="s">
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="20"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="23"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14" t="s">
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="21" t="s">
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="22"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="24"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="21" t="s">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="14" t="s">
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14" t="s">
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="20"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="23"/>
     </row>
     <row r="7" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="15" t="s">
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15" t="s">
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="16"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="19"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
@@ -28020,6 +28020,14 @@
       <c r="C13" t="s">
         <v>220</v>
       </c>
+      <c r="K13" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="K14" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
@@ -28028,60 +28036,54 @@
       <c r="C15" t="s">
         <v>208</v>
       </c>
-      <c r="S15" t="s">
-        <v>264</v>
+      <c r="K15" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
         <v>221</v>
       </c>
-      <c r="S16" t="s">
-        <v>265</v>
-      </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="S17" t="s">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="K17" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>209</v>
       </c>
       <c r="C18" t="s">
         <v>210</v>
       </c>
-      <c r="S18" t="s">
-        <v>267</v>
-      </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C22" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B24" s="6" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>212</v>
       </c>
@@ -28089,22 +28091,22 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C26" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C28" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>216</v>
       </c>
@@ -28112,12 +28114,12 @@
         <v>217</v>
       </c>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C31" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C32" t="s">
         <v>231</v>
       </c>
@@ -28132,6 +28134,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -28143,19 +28158,6 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="269">
   <si>
     <t>・移動</t>
     <rPh sb="1" eb="3">
@@ -3400,6 +3400,10 @@
     <rPh sb="20" eb="21">
       <t>ツク</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・README</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3729,7 +3733,40 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3738,43 +3775,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27828,160 +27832,160 @@
   <sheetData>
     <row r="1" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20" t="s">
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="21"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="17"/>
     </row>
     <row r="3" spans="2:19" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14" t="s">
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="22"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="19"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16" t="s">
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="23"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="20"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16" t="s">
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="15" t="s">
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="24"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="22"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="26" t="s">
         <v>262</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="15" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="16" t="s">
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16" t="s">
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="23"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="20"/>
     </row>
     <row r="7" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13" t="s">
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="11" t="s">
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11" t="s">
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="19"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="16"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
@@ -28022,6 +28026,9 @@
       </c>
       <c r="K13" t="s">
         <v>264</v>
+      </c>
+      <c r="S13" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.4">
@@ -28134,19 +28141,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -28158,6 +28152,19 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA4\Desktop\Game\JapanGameContest2023\仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\Game\4年\GameContest2023\JapanGameContest2023\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DED866E-43F7-49DA-96EC-CE2BF18B9197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="9"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="注意事項" sheetId="2" r:id="rId1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="266">
   <si>
     <t>・移動</t>
     <rPh sb="1" eb="3">
@@ -3133,16 +3134,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>現在存在するバグ</t>
-    <rPh sb="0" eb="2">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ソンザイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>調整中のバグ</t>
     <rPh sb="0" eb="3">
       <t>チョウセイチュウ</t>
@@ -3256,16 +3247,6 @@
   </si>
   <si>
     <t>やりたいこと</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　・アイコンに名前表示</t>
-    <rPh sb="7" eb="9">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -3360,19 +3341,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>　・移動中にモードを変えれないことを教える</t>
-    <rPh sb="2" eb="5">
-      <t>イドウチュウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>オシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>　・重なった時にモードを変えれないことを教える</t>
     <rPh sb="2" eb="3">
       <t>カサ</t>
@@ -3410,7 +3378,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3699,7 +3667,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3733,40 +3701,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3775,10 +3710,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27769,49 +27731,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>190</v>
       </c>
@@ -27823,185 +27785,183 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:S34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="B1:Q34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="11" t="s">
+    <row r="1" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12" t="s">
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12" t="s">
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="17"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="20"/>
     </row>
-    <row r="3" spans="2:19" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="25" t="s">
+    <row r="3" spans="2:17" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18" t="s">
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18" t="s">
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="19"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="21"/>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B4" s="13" t="s">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B4" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14" t="s">
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14" t="s">
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="20"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="22"/>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B5" s="13" t="s">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B5" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14" t="s">
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="21" t="s">
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
       <c r="Q5" s="22"/>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B6" s="26" t="s">
-        <v>262</v>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B6" s="17" t="s">
+        <v>260</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="21" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="22"/>
+    </row>
+    <row r="7" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B7" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="20"/>
-    </row>
-    <row r="7" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="15" t="s">
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15" t="s">
-        <v>250</v>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11" t="s">
+        <v>249</v>
       </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="16"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="18"/>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B10" s="6" t="s">
         <v>218</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="O10" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="S10" s="6" t="s">
-        <v>259</v>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6" t="s">
+        <v>258</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>229</v>
       </c>
@@ -28009,34 +27969,29 @@
         <v>206</v>
       </c>
       <c r="K11" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
-      <c r="S11" t="s">
-        <v>261</v>
+      <c r="P11" t="s">
+        <v>259</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
         <v>219</v>
       </c>
+      <c r="P12" t="s">
+        <v>265</v>
+      </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
         <v>220</v>
       </c>
       <c r="K13" t="s">
         <v>264</v>
       </c>
-      <c r="S13" t="s">
-        <v>268</v>
-      </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="K14" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>207</v>
       </c>
@@ -28044,20 +27999,15 @@
         <v>208</v>
       </c>
       <c r="K15" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="K17" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>209</v>
       </c>
@@ -28065,32 +28015,32 @@
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C19" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C20" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C21" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C22" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B24" s="6" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>212</v>
       </c>
@@ -28098,22 +28048,22 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C26" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C27" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C28" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
         <v>216</v>
       </c>
@@ -28121,17 +28071,17 @@
         <v>217</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C31" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C32" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
         <v>214</v>
       </c>
@@ -28141,6 +28091,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -28152,19 +28115,6 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28173,154 +28123,154 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A39"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -28332,59 +28282,59 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>166</v>
       </c>
@@ -28396,139 +28346,139 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="28" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="31" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>235</v>
       </c>
@@ -28540,170 +28490,170 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AH98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" s="7"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" s="7"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" s="7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" s="7"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" s="7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A65" s="2" t="s">
         <v>239</v>
       </c>
@@ -28741,32 +28691,32 @@
       <c r="AG65" s="1"/>
       <c r="AH65" s="1"/>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>147</v>
       </c>
@@ -28780,297 +28730,297 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A85"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="7"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" s="7"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" s="7"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="7"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" s="7"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" s="7"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" s="7"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" s="7"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" s="7"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" s="7"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" s="7"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" s="7"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" s="7"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" s="7"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40" s="7"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A44" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A45" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A46" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A48" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49" s="7"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52" s="7"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" s="7"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A54" s="7"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A55" s="7"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A56" s="7"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A57" s="7"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A58" s="7"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A62" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="81" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A81" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>12</v>
       </c>
@@ -29084,269 +29034,269 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A136"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A64" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="74" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A74" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A78" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="120" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A120" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="121" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A121" s="10" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>182</v>
       </c>
@@ -29360,89 +29310,89 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:V115"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="36" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A58" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="77" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A77" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.45">
       <c r="V79" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="V80" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="V80" t="s">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="V81" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="V81" t="s">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="V83" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="V83" t="s">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="V84" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="V84" t="s">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="V85" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="V85" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="93" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A93" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>247</v>
       </c>
@@ -29456,14 +29406,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>148</v>
       </c>

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\Game\4年\GameContest2023\JapanGameContest2023\仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA4\Desktop\Game\JapanGameContest2023\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DED866E-43F7-49DA-96EC-CE2BF18B9197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="注意事項" sheetId="2" r:id="rId1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="264">
   <si>
     <t>・移動</t>
     <rPh sb="1" eb="3">
@@ -3341,31 +3340,8 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>　・重なった時にモードを変えれないことを教える</t>
-    <rPh sb="2" eb="3">
-      <t>カサ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>オシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>　・オープニングを作る</t>
     <rPh sb="9" eb="10">
-      <t>ツク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　・スタートメニューからシャットダウンを作る</t>
-    <rPh sb="20" eb="21">
       <t>ツク</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -3378,7 +3354,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3701,7 +3677,34 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3710,37 +3713,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27731,49 +27707,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>190</v>
       </c>
@@ -27785,171 +27761,171 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="23" t="s">
+    <row r="1" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19" t="s">
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="20"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="17"/>
     </row>
-    <row r="3" spans="2:17" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="16" t="s">
+    <row r="3" spans="2:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14" t="s">
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="21"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="19"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B4" s="24" t="s">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B4" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15" t="s">
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="22"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="20"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B5" s="24" t="s">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B5" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15" t="s">
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15" t="s">
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="22"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="20"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B6" s="17" t="s">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B6" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15" t="s">
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15" t="s">
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="22"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="20"/>
     </row>
-    <row r="7" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="12" t="s">
+    <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13" t="s">
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="11" t="s">
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11" t="s">
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="18"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="16"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
         <v>218</v>
       </c>
@@ -27961,7 +27937,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>229</v>
       </c>
@@ -27975,39 +27951,33 @@
         <v>259</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
         <v>219</v>
       </c>
-      <c r="P12" t="s">
-        <v>265</v>
+      <c r="K12" t="s">
+        <v>263</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
         <v>220</v>
       </c>
-      <c r="K13" t="s">
-        <v>264</v>
-      </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>207</v>
       </c>
       <c r="C15" t="s">
         <v>208</v>
       </c>
-      <c r="K15" t="s">
-        <v>263</v>
-      </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>209</v>
       </c>
@@ -28015,32 +27985,32 @@
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C22" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B24" s="6" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>212</v>
       </c>
@@ -28048,22 +28018,22 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C26" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C28" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>216</v>
       </c>
@@ -28071,17 +28041,17 @@
         <v>217</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C31" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C32" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>214</v>
       </c>
@@ -28091,19 +28061,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -28115,6 +28072,19 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28123,154 +28093,154 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A39"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -28282,59 +28252,59 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>166</v>
       </c>
@@ -28346,139 +28316,139 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="28" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="31" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>235</v>
       </c>
@@ -28490,170 +28460,170 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="8" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" s="7"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" s="7"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" s="7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" s="7"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" s="7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
         <v>239</v>
       </c>
@@ -28691,32 +28661,32 @@
       <c r="AG65" s="1"/>
       <c r="AH65" s="1"/>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>147</v>
       </c>
@@ -28730,297 +28700,297 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A85"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="7"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" s="7"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" s="7"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="7"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" s="7"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" s="7"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" s="7"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" s="7"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" s="7"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" s="7"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" s="7"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" s="7"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" s="7"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" s="7"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A40" s="7"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A42" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A43" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A44" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A45" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A46" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A48" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A49" s="7"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A50" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A51" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A52" s="7"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A53" s="7"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A54" s="7"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A55" s="7"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A56" s="7"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A57" s="7"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A58" s="7"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A62" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="81" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>12</v>
       </c>
@@ -29034,269 +29004,269 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A136"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A64" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="74" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="120" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A120" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="121" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A121" s="10" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>182</v>
       </c>
@@ -29310,89 +29280,89 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V115"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="36" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="77" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.4">
       <c r="V79" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.4">
       <c r="V80" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.4">
       <c r="V81" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.4">
       <c r="V83" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.4">
       <c r="V84" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.4">
       <c r="V85" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="93" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A93" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>247</v>
       </c>
@@ -29406,14 +29376,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>148</v>
       </c>

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -3677,34 +3677,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3713,10 +3686,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27770,160 +27770,160 @@
   <sheetData>
     <row r="1" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12" t="s">
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12" t="s">
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="17"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="20"/>
     </row>
     <row r="3" spans="2:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18" t="s">
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18" t="s">
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="19"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="21"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14" t="s">
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14" t="s">
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="20"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="22"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14" t="s">
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14" t="s">
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="20"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="22"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14" t="s">
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14" t="s">
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="20"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="22"/>
     </row>
     <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="15" t="s">
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15" t="s">
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="16"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="18"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
@@ -28061,6 +28061,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -28072,19 +28085,6 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="266">
   <si>
     <t>・移動</t>
     <rPh sb="1" eb="3">
@@ -3348,6 +3348,29 @@
   </si>
   <si>
     <t>　・README</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・ステージ内にもシャットダウンを置く</t>
+    <rPh sb="6" eb="7">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・主人公が逆を向く</t>
+    <rPh sb="2" eb="5">
+      <t>シュジンコウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ギャク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ム</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3677,7 +3700,34 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3686,37 +3736,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27770,160 +27793,160 @@
   <sheetData>
     <row r="1" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19" t="s">
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="20"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="17"/>
     </row>
     <row r="3" spans="2:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14" t="s">
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="21"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="19"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15" t="s">
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="22"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="20"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15" t="s">
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15" t="s">
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="22"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="20"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15" t="s">
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15" t="s">
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="22"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="20"/>
     </row>
     <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13" t="s">
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="11" t="s">
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11" t="s">
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="18"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="16"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
@@ -27958,10 +27981,16 @@
       <c r="K12" t="s">
         <v>263</v>
       </c>
+      <c r="P12" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
         <v>220</v>
+      </c>
+      <c r="P13" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.4">
@@ -28061,19 +28090,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -28085,6 +28101,19 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -3340,13 +3340,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>　・オープニングを作る</t>
-    <rPh sb="9" eb="10">
-      <t>ツク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>　・README</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -3370,6 +3363,19 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・タスマネの見た目調整</t>
+    <rPh sb="7" eb="8">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>チョウセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3700,34 +3706,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3736,10 +3715,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27793,160 +27799,160 @@
   <sheetData>
     <row r="1" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12" t="s">
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12" t="s">
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="17"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="20"/>
     </row>
     <row r="3" spans="2:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18" t="s">
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18" t="s">
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="19"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="21"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14" t="s">
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14" t="s">
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="20"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="22"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14" t="s">
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14" t="s">
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="20"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="22"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14" t="s">
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14" t="s">
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="20"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="22"/>
     </row>
     <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="15" t="s">
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15" t="s">
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="16"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="18"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
@@ -27979,10 +27985,10 @@
         <v>219</v>
       </c>
       <c r="K12" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.4">
@@ -28090,6 +28096,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -28101,19 +28120,6 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="270">
   <si>
     <t>・移動</t>
     <rPh sb="1" eb="3">
@@ -3376,6 +3376,40 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・ブルスクでウイルスが動く</t>
+    <rPh sb="12" eb="13">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・ページの表示</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・リセットをホームボタンに入れる</t>
+    <rPh sb="14" eb="15">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・主人公の描画順</t>
+    <rPh sb="2" eb="5">
+      <t>シュジンコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ビョウガ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジュン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3706,7 +3740,34 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3715,37 +3776,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27799,160 +27833,160 @@
   <sheetData>
     <row r="1" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19" t="s">
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="20"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="17"/>
     </row>
     <row r="3" spans="2:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14" t="s">
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="21"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="19"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15" t="s">
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="22"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="20"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15" t="s">
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15" t="s">
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="22"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="20"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15" t="s">
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15" t="s">
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="22"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="20"/>
     </row>
     <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="11" t="s">
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11" t="s">
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11" t="s">
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="18"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="16"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
@@ -28006,13 +28040,24 @@
       <c r="C15" t="s">
         <v>208</v>
       </c>
+      <c r="P15" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
         <v>221</v>
       </c>
+      <c r="P16" t="s">
+        <v>267</v>
+      </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="P17" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>209</v>
       </c>
@@ -28020,32 +28065,35 @@
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
         <v>222</v>
       </c>
+      <c r="P19" t="s">
+        <v>269</v>
+      </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C22" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B24" s="6" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>212</v>
       </c>
@@ -28053,22 +28101,22 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C26" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C28" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>216</v>
       </c>
@@ -28076,12 +28124,12 @@
         <v>217</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C31" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C32" t="s">
         <v>231</v>
       </c>
@@ -28096,19 +28144,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -28120,6 +28155,19 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="269">
   <si>
     <t>・移動</t>
     <rPh sb="1" eb="3">
@@ -3337,10 +3337,6 @@
     <rPh sb="9" eb="11">
       <t>エンシュツ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　・README</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -3740,34 +3736,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3776,10 +3745,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27833,160 +27829,160 @@
   <sheetData>
     <row r="1" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12" t="s">
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12" t="s">
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="17"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="20"/>
     </row>
     <row r="3" spans="2:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18" t="s">
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18" t="s">
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="19"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="21"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14" t="s">
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14" t="s">
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="20"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="22"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14" t="s">
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14" t="s">
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="20"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="22"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14" t="s">
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14" t="s">
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="20"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="22"/>
     </row>
     <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="15" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15" t="s">
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15" t="s">
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="16"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="18"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
@@ -28008,7 +28004,7 @@
         <v>206</v>
       </c>
       <c r="K11" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P11" t="s">
         <v>259</v>
@@ -28018,19 +28014,19 @@
       <c r="C12" t="s">
         <v>219</v>
       </c>
-      <c r="K12" t="s">
-        <v>264</v>
-      </c>
       <c r="P12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
         <v>220</v>
       </c>
+      <c r="K13" t="s">
+        <v>268</v>
+      </c>
       <c r="P13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.4">
@@ -28041,7 +28037,7 @@
         <v>208</v>
       </c>
       <c r="P15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.4">
@@ -28049,12 +28045,12 @@
         <v>221</v>
       </c>
       <c r="P16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.4">
       <c r="P17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.4">
@@ -28068,9 +28064,6 @@
     <row r="19" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
         <v>222</v>
-      </c>
-      <c r="P19" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.4">
@@ -28144,6 +28137,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -28155,19 +28161,6 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="265">
   <si>
     <t>・移動</t>
     <rPh sb="1" eb="3">
@@ -3340,16 +3340,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>　・ステージ内にもシャットダウンを置く</t>
-    <rPh sb="6" eb="7">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>　・主人公が逆を向く</t>
     <rPh sb="2" eb="5">
       <t>シュジンコウ</t>
@@ -3359,26 +3349,6 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>ム</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　・タスマネの見た目調整</t>
-    <rPh sb="7" eb="8">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>チョウセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　・ブルスクでウイルスが動く</t>
-    <rPh sb="12" eb="13">
-      <t>ウゴ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3390,22 +3360,12 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>　・リセットをホームボタンに入れる</t>
-    <rPh sb="14" eb="15">
+    <t>　・タスクバーにも時間を入れる</t>
+    <rPh sb="9" eb="11">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
       <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　・主人公の描画順</t>
-    <rPh sb="2" eb="5">
-      <t>シュジンコウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ビョウガ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ジュン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3736,7 +3696,34 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3745,37 +3732,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27829,160 +27789,160 @@
   <sheetData>
     <row r="1" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19" t="s">
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="20"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="17"/>
     </row>
     <row r="3" spans="2:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14" t="s">
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="21"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="19"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15" t="s">
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="22"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="20"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15" t="s">
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15" t="s">
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="22"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="20"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15" t="s">
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15" t="s">
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="22"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="20"/>
     </row>
     <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="11" t="s">
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11" t="s">
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11" t="s">
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="18"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="16"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
@@ -28004,7 +27964,7 @@
         <v>206</v>
       </c>
       <c r="K11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P11" t="s">
         <v>259</v>
@@ -28015,7 +27975,7 @@
         <v>219</v>
       </c>
       <c r="P12" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.4">
@@ -28023,10 +27983,7 @@
         <v>220</v>
       </c>
       <c r="K13" t="s">
-        <v>268</v>
-      </c>
-      <c r="P13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.4">
@@ -28036,24 +27993,13 @@
       <c r="C15" t="s">
         <v>208</v>
       </c>
-      <c r="P15" t="s">
-        <v>265</v>
-      </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
         <v>221</v>
       </c>
-      <c r="P16" t="s">
-        <v>266</v>
-      </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="P17" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>209</v>
       </c>
@@ -28061,32 +28007,32 @@
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C22" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B24" s="6" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>212</v>
       </c>
@@ -28094,22 +28040,22 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C26" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C28" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>216</v>
       </c>
@@ -28117,12 +28063,12 @@
         <v>217</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C31" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C32" t="s">
         <v>231</v>
       </c>
@@ -28137,19 +28083,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -28161,6 +28094,19 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="266">
   <si>
     <t>・移動</t>
     <rPh sb="1" eb="3">
@@ -3367,6 +3367,10 @@
     <rPh sb="12" eb="13">
       <t>イ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・ステージのスクショ</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3696,34 +3700,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3732,10 +3709,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27789,160 +27793,160 @@
   <sheetData>
     <row r="1" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12" t="s">
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12" t="s">
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="17"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="20"/>
     </row>
     <row r="3" spans="2:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18" t="s">
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18" t="s">
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="19"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="21"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14" t="s">
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14" t="s">
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="20"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="22"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14" t="s">
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14" t="s">
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="20"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="22"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14" t="s">
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14" t="s">
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="20"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="22"/>
     </row>
     <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="15" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15" t="s">
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15" t="s">
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="16"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="18"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
@@ -27992,6 +27996,9 @@
       </c>
       <c r="C15" t="s">
         <v>208</v>
+      </c>
+      <c r="K15" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.4">
@@ -28083,6 +28090,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -28094,19 +28114,6 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA4\Desktop\Game\JapanGameContest2023\仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\Game\4年\GameContest2023\JapanGameContest2023\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53391B5B-ECED-4BD6-AEB1-0CB1F9FBD63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="9"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="注意事項" sheetId="2" r:id="rId1"/>
@@ -3370,14 +3371,20 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>　・ステージのスクショ</t>
+    <t>　・ログイン画面で入力ができる</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3700,7 +3707,34 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3709,37 +3743,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27730,49 +27737,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>190</v>
       </c>
@@ -27784,171 +27791,171 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B1:Q34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="23" t="s">
+    <row r="1" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19" t="s">
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="20"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="17"/>
     </row>
-    <row r="3" spans="2:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="16" t="s">
+    <row r="3" spans="2:17" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14" t="s">
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="21"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="19"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B4" s="24" t="s">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B4" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15" t="s">
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="22"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="20"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B5" s="24" t="s">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B5" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15" t="s">
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15" t="s">
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="22"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="20"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="17" t="s">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B6" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15" t="s">
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15" t="s">
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="22"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="20"/>
     </row>
-    <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="12" t="s">
+    <row r="7" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B7" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="11" t="s">
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11" t="s">
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11" t="s">
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="18"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="16"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B10" s="6" t="s">
         <v>218</v>
       </c>
@@ -27960,7 +27967,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>229</v>
       </c>
@@ -27974,39 +27981,39 @@
         <v>259</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
         <v>219</v>
+      </c>
+      <c r="K12" t="s">
+        <v>263</v>
       </c>
       <c r="P12" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
         <v>220</v>
       </c>
-      <c r="K13" t="s">
-        <v>263</v>
+      <c r="P13" t="s">
+        <v>265</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>207</v>
       </c>
       <c r="C15" t="s">
         <v>208</v>
       </c>
-      <c r="K15" t="s">
-        <v>265</v>
-      </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>209</v>
       </c>
@@ -28014,32 +28021,32 @@
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C19" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C20" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C21" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C22" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B24" s="6" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>212</v>
       </c>
@@ -28047,22 +28054,22 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C26" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C27" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C28" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
         <v>216</v>
       </c>
@@ -28070,17 +28077,17 @@
         <v>217</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C31" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C32" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
         <v>214</v>
       </c>
@@ -28090,19 +28097,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -28114,6 +28108,19 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28122,154 +28129,154 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A39"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -28281,59 +28288,59 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>166</v>
       </c>
@@ -28345,139 +28352,139 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="28" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="31" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>235</v>
       </c>
@@ -28489,170 +28496,170 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AH98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" s="7"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" s="7"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" s="7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" s="7"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" s="7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A65" s="2" t="s">
         <v>239</v>
       </c>
@@ -28690,32 +28697,32 @@
       <c r="AG65" s="1"/>
       <c r="AH65" s="1"/>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>147</v>
       </c>
@@ -28729,297 +28736,297 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A85"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="7"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" s="7"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" s="7"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="7"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" s="7"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" s="7"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" s="7"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" s="7"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" s="7"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" s="7"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" s="7"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" s="7"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" s="7"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" s="7"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40" s="7"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A44" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A45" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A46" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A48" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49" s="7"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52" s="7"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" s="7"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A54" s="7"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A55" s="7"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A56" s="7"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A57" s="7"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A58" s="7"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A62" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="81" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A81" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>12</v>
       </c>
@@ -29033,269 +29040,269 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A136"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A64" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="74" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A74" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A78" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="120" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A120" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="121" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A121" s="10" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>182</v>
       </c>
@@ -29309,89 +29316,89 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:V115"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="36" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A58" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="77" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A77" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.45">
       <c r="V79" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.45">
       <c r="V80" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.45">
       <c r="V81" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.45">
       <c r="V83" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.45">
       <c r="V84" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.45">
       <c r="V85" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="93" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A93" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>247</v>
       </c>
@@ -29405,14 +29412,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>148</v>
       </c>

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\Game\4年\GameContest2023\JapanGameContest2023\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53391B5B-ECED-4BD6-AEB1-0CB1F9FBD63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF126B1-2A02-4CBA-9D36-A597A910D14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2844" yWindow="1836" windowWidth="18216" windowHeight="10524" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="注意事項" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="265">
   <si>
     <t>・移動</t>
     <rPh sb="1" eb="3">
@@ -3350,13 +3350,6 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>ム</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　・ページの表示</t>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3707,34 +3700,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3743,10 +3709,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27800,160 +27793,160 @@
   <sheetData>
     <row r="1" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12" t="s">
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12" t="s">
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="17"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="20"/>
     </row>
     <row r="3" spans="2:17" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18" t="s">
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18" t="s">
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="19"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="21"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14" t="s">
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14" t="s">
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="20"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="22"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14" t="s">
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14" t="s">
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="20"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="22"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14" t="s">
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14" t="s">
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="20"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="22"/>
     </row>
     <row r="7" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="15" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15" t="s">
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15" t="s">
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="16"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="18"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B10" s="6" t="s">
@@ -27985,11 +27978,8 @@
       <c r="C12" t="s">
         <v>219</v>
       </c>
-      <c r="K12" t="s">
+      <c r="P12" t="s">
         <v>263</v>
-      </c>
-      <c r="P12" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.45">
@@ -27997,7 +27987,7 @@
         <v>220</v>
       </c>
       <c r="P13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.45">
@@ -28097,6 +28087,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -28108,19 +28111,6 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\Game\4年\GameContest2023\JapanGameContest2023\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF126B1-2A02-4CBA-9D36-A597A910D14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62A5658-DA12-409B-875E-599F9402A226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2844" yWindow="1836" windowWidth="18216" windowHeight="10524" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="注意事項" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="264">
   <si>
     <t>・移動</t>
     <rPh sb="1" eb="3">
@@ -3337,19 +3337,6 @@
     </r>
     <rPh sb="9" eb="11">
       <t>エンシュツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　・主人公が逆を向く</t>
-    <rPh sb="2" eb="5">
-      <t>シュジンコウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ギャク</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ム</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3700,7 +3687,34 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3709,37 +3723,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27793,160 +27780,160 @@
   <sheetData>
     <row r="1" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19" t="s">
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="20"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="17"/>
     </row>
     <row r="3" spans="2:17" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14" t="s">
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="21"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="19"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15" t="s">
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="22"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="20"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15" t="s">
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15" t="s">
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="22"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="20"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15" t="s">
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15" t="s">
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="22"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="20"/>
     </row>
     <row r="7" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="11" t="s">
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11" t="s">
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11" t="s">
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="18"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="16"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B10" s="6" t="s">
@@ -27971,23 +27958,20 @@
         <v>262</v>
       </c>
       <c r="P11" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
         <v>219</v>
       </c>
-      <c r="P12" t="s">
-        <v>263</v>
+      <c r="K12" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
         <v>220</v>
-      </c>
-      <c r="P13" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.45">
@@ -28087,19 +28071,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -28111,6 +28082,19 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\Game\4年\GameContest2023\JapanGameContest2023\仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA4\Desktop\Game\JapanGameContest2023\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62A5658-DA12-409B-875E-599F9402A226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="注意事項" sheetId="2" r:id="rId1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="265">
   <si>
     <t>・移動</t>
     <rPh sb="1" eb="3">
@@ -3360,11 +3359,18 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>　・リセットをスタートメニューに入れる</t>
+    <rPh sb="16" eb="17">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3687,34 +3693,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3723,10 +3702,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27717,49 +27723,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>190</v>
       </c>
@@ -27771,171 +27777,171 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="11" t="s">
+    <row r="1" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12" t="s">
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12" t="s">
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="17"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="20"/>
     </row>
-    <row r="3" spans="2:17" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="23" t="s">
+    <row r="3" spans="2:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18" t="s">
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18" t="s">
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="19"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="21"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B4" s="13" t="s">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B4" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14" t="s">
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14" t="s">
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="20"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="22"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B5" s="13" t="s">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B5" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14" t="s">
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14" t="s">
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="20"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="22"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B6" s="24" t="s">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B6" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14" t="s">
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14" t="s">
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="20"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="22"/>
     </row>
-    <row r="7" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="21" t="s">
+    <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="15" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15" t="s">
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15" t="s">
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="16"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="18"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
         <v>218</v>
       </c>
@@ -27947,7 +27953,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>229</v>
       </c>
@@ -27958,23 +27964,26 @@
         <v>262</v>
       </c>
       <c r="P11" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
         <v>219</v>
       </c>
       <c r="K12" t="s">
         <v>259</v>
       </c>
+      <c r="P12" t="s">
+        <v>263</v>
+      </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>207</v>
       </c>
@@ -27982,12 +27991,12 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>209</v>
       </c>
@@ -27995,32 +28004,32 @@
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C22" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B24" s="6" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>212</v>
       </c>
@@ -28028,22 +28037,22 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C26" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C28" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>216</v>
       </c>
@@ -28051,17 +28060,17 @@
         <v>217</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C31" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C32" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>214</v>
       </c>
@@ -28071,6 +28080,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -28082,19 +28104,6 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28103,154 +28112,154 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A39"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -28262,59 +28271,59 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>166</v>
       </c>
@@ -28326,139 +28335,139 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="28" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="31" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>235</v>
       </c>
@@ -28470,170 +28479,170 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="8" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" s="7"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" s="7"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" s="7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" s="7"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" s="7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
         <v>239</v>
       </c>
@@ -28671,32 +28680,32 @@
       <c r="AG65" s="1"/>
       <c r="AH65" s="1"/>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>147</v>
       </c>
@@ -28710,297 +28719,297 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A85"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="7"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" s="7"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" s="7"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="7"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" s="7"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" s="7"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" s="7"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" s="7"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" s="7"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" s="7"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" s="7"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" s="7"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" s="7"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" s="7"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A40" s="7"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A42" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A43" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A44" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A45" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A46" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A48" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A49" s="7"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A50" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A51" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A52" s="7"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A53" s="7"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A54" s="7"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A55" s="7"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A56" s="7"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A57" s="7"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A58" s="7"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A62" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="81" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>12</v>
       </c>
@@ -29014,269 +29023,269 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A136"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A64" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="74" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="120" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A120" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="121" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A121" s="10" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>182</v>
       </c>
@@ -29290,89 +29299,89 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V115"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="36" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="77" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.4">
       <c r="V79" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.4">
       <c r="V80" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.4">
       <c r="V81" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.4">
       <c r="V83" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.4">
       <c r="V84" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.4">
       <c r="V85" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="93" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A93" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>247</v>
       </c>
@@ -29386,14 +29395,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>148</v>
       </c>

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -3340,16 +3340,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>　・タスクバーにも時間を入れる</t>
-    <rPh sb="9" eb="11">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>　・ログイン画面で入力ができる</t>
     <rPh sb="6" eb="8">
       <t>ガメン</t>
@@ -3363,6 +3353,16 @@
     <t>　・リセットをスタートメニューに入れる</t>
     <rPh sb="16" eb="17">
       <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・フォルダ感染時のイラスト変更</t>
+    <rPh sb="6" eb="9">
+      <t>カンセンジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3693,7 +3693,34 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3702,37 +3729,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27786,160 +27786,160 @@
   <sheetData>
     <row r="1" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19" t="s">
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="20"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="17"/>
     </row>
     <row r="3" spans="2:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14" t="s">
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="21"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="19"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15" t="s">
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="22"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="20"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15" t="s">
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15" t="s">
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="22"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="20"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15" t="s">
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15" t="s">
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="22"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="20"/>
     </row>
     <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="11" t="s">
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11" t="s">
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11" t="s">
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="18"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="16"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
@@ -27961,7 +27961,7 @@
         <v>206</v>
       </c>
       <c r="K11" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="P11" t="s">
         <v>264</v>
@@ -27971,9 +27971,6 @@
       <c r="C12" t="s">
         <v>219</v>
       </c>
-      <c r="K12" t="s">
-        <v>259</v>
-      </c>
       <c r="P12" t="s">
         <v>263</v>
       </c>
@@ -27981,6 +27978,9 @@
     <row r="13" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
         <v>220</v>
+      </c>
+      <c r="P13" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.4">
@@ -28080,19 +28080,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -28104,6 +28091,19 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -3256,40 +3256,35 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>　・ログイン画面で入力ができる</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・リセットをスタートメニューに入れる</t>
+    <rPh sb="16" eb="17">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・フォルダ感染時のイラスト変更</t>
+    <rPh sb="6" eb="9">
+      <t>カンセンジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>出現</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>移動</t>
+      <t>出現/移動</t>
     </r>
     <r>
       <rPr>
@@ -3312,15 +3307,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>フォルダ</t>
     </r>
     <r>
@@ -3336,33 +3322,6 @@
     </r>
     <rPh sb="9" eb="11">
       <t>エンシュツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　・ログイン画面で入力ができる</t>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　・リセットをスタートメニューに入れる</t>
-    <rPh sb="16" eb="17">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　・フォルダ感染時のイラスト変更</t>
-    <rPh sb="6" eb="9">
-      <t>カンセンジ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3693,34 +3652,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3729,10 +3661,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27786,160 +27745,160 @@
   <sheetData>
     <row r="1" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12" t="s">
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12" t="s">
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="17"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="20"/>
     </row>
     <row r="3" spans="2:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18" t="s">
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18" t="s">
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="19"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="21"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14" t="s">
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14" t="s">
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="20"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="22"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14" t="s">
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14" t="s">
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="20"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="22"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="24" t="s">
-        <v>260</v>
+      <c r="B6" s="17" t="s">
+        <v>263</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14" t="s">
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14" t="s">
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="20"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="22"/>
     </row>
     <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="21" t="s">
-        <v>261</v>
+      <c r="B7" s="12" t="s">
+        <v>264</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="15" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15" t="s">
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15" t="s">
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="16"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="18"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
@@ -27964,7 +27923,7 @@
         <v>259</v>
       </c>
       <c r="P11" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.4">
@@ -27972,7 +27931,7 @@
         <v>219</v>
       </c>
       <c r="P12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.4">
@@ -27980,7 +27939,7 @@
         <v>220</v>
       </c>
       <c r="P13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.4">
@@ -28080,6 +28039,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -28091,19 +28063,6 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="266">
   <si>
     <t>・移動</t>
     <rPh sb="1" eb="3">
@@ -3322,6 +3322,13 @@
     </r>
     <rPh sb="9" eb="11">
       <t>エンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・マウスカーソル削除</t>
+    <rPh sb="9" eb="11">
+      <t>サクジョ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3652,7 +3659,34 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3661,37 +3695,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27745,160 +27752,160 @@
   <sheetData>
     <row r="1" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19" t="s">
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="20"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="17"/>
     </row>
     <row r="3" spans="2:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14" t="s">
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="21"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="19"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15" t="s">
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="22"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="20"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15" t="s">
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15" t="s">
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="22"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="20"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15" t="s">
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15" t="s">
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="22"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="20"/>
     </row>
     <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="11" t="s">
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11" t="s">
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11" t="s">
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="18"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="16"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
@@ -27948,6 +27955,9 @@
       </c>
       <c r="C15" t="s">
         <v>208</v>
+      </c>
+      <c r="P15" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.4">
@@ -28039,19 +28049,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -28063,6 +28060,19 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -3659,34 +3659,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3695,10 +3668,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27752,160 +27752,160 @@
   <sheetData>
     <row r="1" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12" t="s">
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12" t="s">
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="17"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="20"/>
     </row>
     <row r="3" spans="2:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18" t="s">
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18" t="s">
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="19"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="21"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14" t="s">
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14" t="s">
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="20"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="22"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14" t="s">
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14" t="s">
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="20"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="22"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14" t="s">
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14" t="s">
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="20"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="22"/>
     </row>
     <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="15" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15" t="s">
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15" t="s">
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="16"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="18"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
@@ -28049,6 +28049,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -28060,19 +28073,6 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="267">
   <si>
     <t>・移動</t>
     <rPh sb="1" eb="3">
@@ -3329,6 +3329,16 @@
     <t>　・マウスカーソル削除</t>
     <rPh sb="9" eb="11">
       <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・ホームボタンの色変化</t>
+    <rPh sb="9" eb="10">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヘンカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3625,7 +3635,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3662,10 +3672,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -27752,142 +27759,142 @@
   <sheetData>
     <row r="1" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19" t="s">
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19" t="s">
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="20"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="19"/>
     </row>
     <row r="3" spans="2:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14" t="s">
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14" t="s">
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="21"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="20"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15" t="s">
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="22"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="21"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15" t="s">
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15" t="s">
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="22"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="21"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15" t="s">
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15" t="s">
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="22"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="21"/>
     </row>
     <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B7" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
       <c r="F7" s="11" t="s">
         <v>251</v>
       </c>
@@ -27905,7 +27912,7 @@
       </c>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
-      <c r="Q7" s="18"/>
+      <c r="Q7" s="17"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
@@ -27963,6 +27970,9 @@
     <row r="16" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
         <v>221</v>
+      </c>
+      <c r="P16" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.4">

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="265">
   <si>
     <t>・移動</t>
     <rPh sb="1" eb="3">
@@ -3266,13 +3266,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>　・リセットをスタートメニューに入れる</t>
-    <rPh sb="16" eb="17">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>　・フォルダ感染時のイラスト変更</t>
     <rPh sb="6" eb="9">
       <t>カンセンジ</t>
@@ -3329,16 +3322,6 @@
     <t>　・マウスカーソル削除</t>
     <rPh sb="9" eb="11">
       <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　・ホームボタンの色変化</t>
-    <rPh sb="9" eb="10">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヘンカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3669,32 +3652,29 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3702,10 +3682,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27759,59 +27742,59 @@
   <sheetData>
     <row r="1" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18" t="s">
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="19"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="17"/>
     </row>
     <row r="3" spans="2:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13" t="s">
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="20"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="19"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="13" t="s">
         <v>204</v>
       </c>
       <c r="C4" s="14"/>
@@ -27834,10 +27817,10 @@
       </c>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
-      <c r="Q4" s="21"/>
+      <c r="Q4" s="20"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="13" t="s">
         <v>203</v>
       </c>
       <c r="C5" s="14"/>
@@ -27860,11 +27843,11 @@
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
-      <c r="Q5" s="21"/>
+      <c r="Q5" s="20"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="16" t="s">
-        <v>263</v>
+      <c r="B6" s="23" t="s">
+        <v>262</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -27886,33 +27869,33 @@
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
-      <c r="Q6" s="21"/>
+      <c r="Q6" s="20"/>
     </row>
     <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="12" t="s">
-        <v>264</v>
+      <c r="B7" s="21" t="s">
+        <v>263</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11" t="s">
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11" t="s">
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11" t="s">
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="17"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="16"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
@@ -27937,7 +27920,7 @@
         <v>259</v>
       </c>
       <c r="P11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.4">
@@ -27945,15 +27928,17 @@
         <v>219</v>
       </c>
       <c r="P12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
         <v>220</v>
       </c>
-      <c r="P13" t="s">
-        <v>260</v>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="P14" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.4">
@@ -27963,16 +27948,10 @@
       <c r="C15" t="s">
         <v>208</v>
       </c>
-      <c r="P15" t="s">
-        <v>265</v>
-      </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
         <v>221</v>
-      </c>
-      <c r="P16" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.4">
@@ -28059,19 +28038,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -28083,6 +28049,19 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="266">
   <si>
     <t>・移動</t>
     <rPh sb="1" eb="3">
@@ -3323,6 +3323,10 @@
     <rPh sb="9" eb="11">
       <t>サクジョ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・スタートメニューのノータップエリア</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3652,29 +3656,32 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3682,13 +3689,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27742,59 +27746,59 @@
   <sheetData>
     <row r="1" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12" t="s">
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12" t="s">
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="17"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="19"/>
     </row>
     <row r="3" spans="2:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18" t="s">
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18" t="s">
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="19"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="20"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="23" t="s">
         <v>204</v>
       </c>
       <c r="C4" s="14"/>
@@ -27817,10 +27821,10 @@
       </c>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
-      <c r="Q4" s="20"/>
+      <c r="Q4" s="21"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="23" t="s">
         <v>203</v>
       </c>
       <c r="C5" s="14"/>
@@ -27843,10 +27847,10 @@
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
-      <c r="Q5" s="20"/>
+      <c r="Q5" s="21"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="16" t="s">
         <v>262</v>
       </c>
       <c r="C6" s="14"/>
@@ -27869,33 +27873,33 @@
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
-      <c r="Q6" s="20"/>
+      <c r="Q6" s="21"/>
     </row>
     <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15" t="s">
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15" t="s">
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="16"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="17"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
@@ -27926,6 +27930,9 @@
     <row r="12" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
         <v>219</v>
+      </c>
+      <c r="K12" t="s">
+        <v>265</v>
       </c>
       <c r="P12" t="s">
         <v>260</v>
@@ -28038,6 +28045,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -28049,19 +28069,6 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="265">
   <si>
     <t>・移動</t>
     <rPh sb="1" eb="3">
@@ -3323,10 +3323,6 @@
     <rPh sb="9" eb="11">
       <t>サクジョ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　・スタートメニューのノータップエリア</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3656,32 +3652,29 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3689,10 +3682,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27746,59 +27742,59 @@
   <sheetData>
     <row r="1" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18" t="s">
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="19"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="17"/>
     </row>
     <row r="3" spans="2:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13" t="s">
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="20"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="19"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="13" t="s">
         <v>204</v>
       </c>
       <c r="C4" s="14"/>
@@ -27821,10 +27817,10 @@
       </c>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
-      <c r="Q4" s="21"/>
+      <c r="Q4" s="20"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="13" t="s">
         <v>203</v>
       </c>
       <c r="C5" s="14"/>
@@ -27847,10 +27843,10 @@
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
-      <c r="Q5" s="21"/>
+      <c r="Q5" s="20"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="23" t="s">
         <v>262</v>
       </c>
       <c r="C6" s="14"/>
@@ -27873,33 +27869,33 @@
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
-      <c r="Q6" s="21"/>
+      <c r="Q6" s="20"/>
     </row>
     <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11" t="s">
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11" t="s">
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11" t="s">
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="17"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="16"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
@@ -27930,9 +27926,6 @@
     <row r="12" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
         <v>219</v>
-      </c>
-      <c r="K12" t="s">
-        <v>265</v>
       </c>
       <c r="P12" t="s">
         <v>260</v>
@@ -28045,19 +28038,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -28069,6 +28049,19 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -3652,29 +3652,32 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3682,13 +3685,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27742,59 +27742,59 @@
   <sheetData>
     <row r="1" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12" t="s">
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12" t="s">
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="17"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="19"/>
     </row>
     <row r="3" spans="2:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18" t="s">
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18" t="s">
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="19"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="20"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="23" t="s">
         <v>204</v>
       </c>
       <c r="C4" s="14"/>
@@ -27817,10 +27817,10 @@
       </c>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
-      <c r="Q4" s="20"/>
+      <c r="Q4" s="21"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="23" t="s">
         <v>203</v>
       </c>
       <c r="C5" s="14"/>
@@ -27843,10 +27843,10 @@
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
-      <c r="Q5" s="20"/>
+      <c r="Q5" s="21"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="16" t="s">
         <v>262</v>
       </c>
       <c r="C6" s="14"/>
@@ -27869,33 +27869,33 @@
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
-      <c r="Q6" s="20"/>
+      <c r="Q6" s="21"/>
     </row>
     <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15" t="s">
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15" t="s">
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="16"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="17"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
@@ -27920,25 +27920,23 @@
         <v>259</v>
       </c>
       <c r="P11" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
         <v>219</v>
       </c>
-      <c r="P12" t="s">
-        <v>260</v>
+      <c r="K12" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="P14" t="s">
-        <v>264</v>
+      <c r="K13" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.4">
@@ -28038,6 +28036,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -28049,19 +28060,6 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="264">
   <si>
     <t>・移動</t>
     <rPh sb="1" eb="3">
@@ -3252,16 +3252,6 @@
     <t>　・BGM/SE追加</t>
     <rPh sb="8" eb="10">
       <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　・ログイン画面で入力ができる</t>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3652,32 +3642,29 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3685,10 +3672,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27742,59 +27732,59 @@
   <sheetData>
     <row r="1" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18" t="s">
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="19"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="17"/>
     </row>
     <row r="3" spans="2:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13" t="s">
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="20"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="19"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="13" t="s">
         <v>204</v>
       </c>
       <c r="C4" s="14"/>
@@ -27817,10 +27807,10 @@
       </c>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
-      <c r="Q4" s="21"/>
+      <c r="Q4" s="20"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="13" t="s">
         <v>203</v>
       </c>
       <c r="C5" s="14"/>
@@ -27843,11 +27833,11 @@
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
-      <c r="Q5" s="21"/>
+      <c r="Q5" s="20"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="16" t="s">
-        <v>262</v>
+      <c r="B6" s="23" t="s">
+        <v>261</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -27869,33 +27859,33 @@
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
-      <c r="Q6" s="21"/>
+      <c r="Q6" s="20"/>
     </row>
     <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="12" t="s">
-        <v>263</v>
+      <c r="B7" s="21" t="s">
+        <v>262</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11" t="s">
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11" t="s">
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11" t="s">
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="17"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="16"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
@@ -27920,7 +27910,7 @@
         <v>259</v>
       </c>
       <c r="P11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.4">
@@ -27928,15 +27918,12 @@
         <v>219</v>
       </c>
       <c r="K12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
         <v>220</v>
-      </c>
-      <c r="K13" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.4">
@@ -28036,19 +28023,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -28060,6 +28034,19 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -3642,29 +3642,32 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3672,13 +3675,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27732,59 +27732,59 @@
   <sheetData>
     <row r="1" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12" t="s">
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12" t="s">
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="17"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="19"/>
     </row>
     <row r="3" spans="2:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18" t="s">
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18" t="s">
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="19"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="20"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="23" t="s">
         <v>204</v>
       </c>
       <c r="C4" s="14"/>
@@ -27807,10 +27807,10 @@
       </c>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
-      <c r="Q4" s="20"/>
+      <c r="Q4" s="21"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="23" t="s">
         <v>203</v>
       </c>
       <c r="C5" s="14"/>
@@ -27833,10 +27833,10 @@
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
-      <c r="Q5" s="20"/>
+      <c r="Q5" s="21"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="16" t="s">
         <v>261</v>
       </c>
       <c r="C6" s="14"/>
@@ -27859,33 +27859,33 @@
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
-      <c r="Q6" s="20"/>
+      <c r="Q6" s="21"/>
     </row>
     <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15" t="s">
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15" t="s">
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="16"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="17"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
@@ -28023,6 +28023,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -28034,19 +28047,6 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -3642,32 +3642,29 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3675,10 +3672,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27732,59 +27732,59 @@
   <sheetData>
     <row r="1" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18" t="s">
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="19"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="17"/>
     </row>
     <row r="3" spans="2:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13" t="s">
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="20"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="19"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="13" t="s">
         <v>204</v>
       </c>
       <c r="C4" s="14"/>
@@ -27807,10 +27807,10 @@
       </c>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
-      <c r="Q4" s="21"/>
+      <c r="Q4" s="20"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="13" t="s">
         <v>203</v>
       </c>
       <c r="C5" s="14"/>
@@ -27833,10 +27833,10 @@
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
-      <c r="Q5" s="21"/>
+      <c r="Q5" s="20"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="23" t="s">
         <v>261</v>
       </c>
       <c r="C6" s="14"/>
@@ -27859,33 +27859,33 @@
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
-      <c r="Q6" s="21"/>
+      <c r="Q6" s="20"/>
     </row>
     <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11" t="s">
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11" t="s">
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11" t="s">
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="17"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="16"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
@@ -28023,19 +28023,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -28047,6 +28034,19 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="265">
   <si>
     <t>・移動</t>
     <rPh sb="1" eb="3">
@@ -3312,6 +3312,16 @@
     <t>　・マウスカーソル削除</t>
     <rPh sb="9" eb="11">
       <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・ブルスクでも音楽が流れてる</t>
+    <rPh sb="8" eb="10">
+      <t>オンガク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ナガ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3642,29 +3652,32 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3672,13 +3685,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27732,59 +27742,59 @@
   <sheetData>
     <row r="1" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12" t="s">
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12" t="s">
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="17"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="19"/>
     </row>
     <row r="3" spans="2:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18" t="s">
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18" t="s">
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="19"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="20"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="23" t="s">
         <v>204</v>
       </c>
       <c r="C4" s="14"/>
@@ -27807,10 +27817,10 @@
       </c>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
-      <c r="Q4" s="20"/>
+      <c r="Q4" s="21"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="23" t="s">
         <v>203</v>
       </c>
       <c r="C5" s="14"/>
@@ -27833,10 +27843,10 @@
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
-      <c r="Q5" s="20"/>
+      <c r="Q5" s="21"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="16" t="s">
         <v>261</v>
       </c>
       <c r="C6" s="14"/>
@@ -27859,33 +27869,33 @@
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
-      <c r="Q6" s="20"/>
+      <c r="Q6" s="21"/>
     </row>
     <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15" t="s">
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15" t="s">
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="16"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="17"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
@@ -27919,6 +27929,9 @@
       </c>
       <c r="K12" t="s">
         <v>260</v>
+      </c>
+      <c r="P12" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.4">
@@ -28023,6 +28036,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -28034,19 +28060,6 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA4\Desktop\Game\JapanGameContest2023\仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\Game\4年\GameContest2023\JapanGameContest2023\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F0A7A4-3A5E-44CC-9132-17DB6473253B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="9"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="注意事項" sheetId="2" r:id="rId1"/>
@@ -3256,16 +3257,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>　・フォルダ感染時のイラスト変更</t>
-    <rPh sb="6" eb="9">
-      <t>カンセンジ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <r>
       <t>出現/移動</t>
     </r>
@@ -3325,11 +3316,21 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>　・点々の調整</t>
+    <rPh sb="2" eb="4">
+      <t>テンテン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3652,32 +3653,29 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3685,10 +3683,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27679,49 +27680,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>190</v>
       </c>
@@ -27733,68 +27734,68 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B1:Q34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="22" t="s">
+    <row r="1" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18" t="s">
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="19"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="17"/>
     </row>
-    <row r="3" spans="2:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="15" t="s">
+    <row r="3" spans="2:17" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13" t="s">
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="20"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="19"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B4" s="23" t="s">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B4" s="13" t="s">
         <v>204</v>
       </c>
       <c r="C4" s="14"/>
@@ -27817,10 +27818,10 @@
       </c>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
-      <c r="Q4" s="21"/>
+      <c r="Q4" s="20"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B5" s="23" t="s">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B5" s="13" t="s">
         <v>203</v>
       </c>
       <c r="C5" s="14"/>
@@ -27843,11 +27844,11 @@
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
-      <c r="Q5" s="21"/>
+      <c r="Q5" s="20"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="16" t="s">
-        <v>261</v>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B6" s="23" t="s">
+        <v>260</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -27869,35 +27870,35 @@
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
-      <c r="Q6" s="21"/>
+      <c r="Q6" s="20"/>
     </row>
-    <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="12" t="s">
-        <v>262</v>
+    <row r="7" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B7" s="21" t="s">
+        <v>261</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11" t="s">
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11" t="s">
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11" t="s">
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="17"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="16"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B10" s="6" t="s">
         <v>218</v>
       </c>
@@ -27909,7 +27910,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>229</v>
       </c>
@@ -27920,26 +27921,26 @@
         <v>259</v>
       </c>
       <c r="P11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
         <v>219</v>
       </c>
       <c r="K12" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
-      <c r="P12" t="s">
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="C13" t="s">
+        <v>220</v>
+      </c>
+      <c r="K13" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="C13" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>207</v>
       </c>
@@ -27947,12 +27948,12 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>209</v>
       </c>
@@ -27960,32 +27961,32 @@
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C19" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C20" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C21" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C22" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B24" s="6" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>212</v>
       </c>
@@ -27993,22 +27994,22 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C26" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C27" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C28" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
         <v>216</v>
       </c>
@@ -28016,17 +28017,17 @@
         <v>217</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C31" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C32" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
         <v>214</v>
       </c>
@@ -28036,19 +28037,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -28060,6 +28048,19 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28068,154 +28069,154 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A39"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -28227,59 +28228,59 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>166</v>
       </c>
@@ -28291,139 +28292,139 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="28" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="31" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>235</v>
       </c>
@@ -28435,170 +28436,170 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AH98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" s="7"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" s="7"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" s="7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" s="7"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" s="7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A65" s="2" t="s">
         <v>239</v>
       </c>
@@ -28636,32 +28637,32 @@
       <c r="AG65" s="1"/>
       <c r="AH65" s="1"/>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>147</v>
       </c>
@@ -28675,297 +28676,297 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A85"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="7"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" s="7"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" s="7"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="7"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" s="7"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" s="7"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" s="7"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" s="7"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" s="7"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" s="7"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" s="7"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" s="7"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" s="7"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" s="7"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40" s="7"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A44" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A45" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A46" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A48" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49" s="7"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52" s="7"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" s="7"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A54" s="7"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A55" s="7"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A56" s="7"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A57" s="7"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A58" s="7"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A62" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="81" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A81" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>12</v>
       </c>
@@ -28979,269 +28980,269 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A136"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A64" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="74" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A74" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A78" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="120" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A120" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="121" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A121" s="10" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>182</v>
       </c>
@@ -29255,89 +29256,89 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:V115"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="36" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A58" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="77" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A77" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.45">
       <c r="V79" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.45">
       <c r="V80" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.45">
       <c r="V81" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.45">
       <c r="V83" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.45">
       <c r="V84" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.45">
       <c r="V85" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="93" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A93" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>247</v>
       </c>
@@ -29351,14 +29352,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>148</v>
       </c>

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\Game\4年\GameContest2023\JapanGameContest2023\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F0A7A4-3A5E-44CC-9132-17DB6473253B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1EA753-8273-45D6-BE20-6885BC0766A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="263">
   <si>
     <t>・移動</t>
     <rPh sb="1" eb="3">
@@ -3303,26 +3303,6 @@
     <t>　・マウスカーソル削除</t>
     <rPh sb="9" eb="11">
       <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　・ブルスクでも音楽が流れてる</t>
-    <rPh sb="8" eb="10">
-      <t>オンガク</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ナガ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　・点々の調整</t>
-    <rPh sb="2" eb="4">
-      <t>テンテン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>チョウセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3653,29 +3633,32 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3683,13 +3666,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27743,59 +27723,59 @@
   <sheetData>
     <row r="1" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12" t="s">
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12" t="s">
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="17"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="19"/>
     </row>
     <row r="3" spans="2:17" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18" t="s">
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18" t="s">
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="19"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="20"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="23" t="s">
         <v>204</v>
       </c>
       <c r="C4" s="14"/>
@@ -27818,10 +27798,10 @@
       </c>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
-      <c r="Q4" s="20"/>
+      <c r="Q4" s="21"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="23" t="s">
         <v>203</v>
       </c>
       <c r="C5" s="14"/>
@@ -27844,10 +27824,10 @@
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
-      <c r="Q5" s="20"/>
+      <c r="Q5" s="21"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="16" t="s">
         <v>260</v>
       </c>
       <c r="C6" s="14"/>
@@ -27870,33 +27850,33 @@
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
-      <c r="Q6" s="20"/>
+      <c r="Q6" s="21"/>
     </row>
     <row r="7" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15" t="s">
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15" t="s">
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="16"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="17"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B10" s="6" t="s">
@@ -27928,16 +27908,10 @@
       <c r="C12" t="s">
         <v>219</v>
       </c>
-      <c r="K12" t="s">
-        <v>263</v>
-      </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
         <v>220</v>
-      </c>
-      <c r="K13" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.45">
@@ -28037,6 +28011,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -28048,19 +28035,6 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\Game\4年\GameContest2023\JapanGameContest2023\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1EA753-8273-45D6-BE20-6885BC0766A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CF2EE2-781D-4444-9C7C-B41F488581F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="注意事項" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="261">
   <si>
     <t>・移動</t>
     <rPh sb="1" eb="3">
@@ -3250,13 +3250,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>　・BGM/SE追加</t>
-    <rPh sb="8" eb="10">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <r>
       <t>出現/移動</t>
     </r>
@@ -3296,13 +3289,6 @@
     </r>
     <rPh sb="9" eb="11">
       <t>エンシュツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　・マウスカーソル削除</t>
-    <rPh sb="9" eb="11">
-      <t>サクジョ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -27717,7 +27703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B1:Q34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -27828,7 +27814,7 @@
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B6" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -27854,7 +27840,7 @@
     </row>
     <row r="7" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B7" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -27896,12 +27882,6 @@
       </c>
       <c r="C11" t="s">
         <v>206</v>
-      </c>
-      <c r="K11" t="s">
-        <v>259</v>
-      </c>
-      <c r="P11" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.45">
@@ -28269,7 +28249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\Game\4年\GameContest2023\JapanGameContest2023\仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA4\Desktop\Game\JapanGameContest2023\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CF2EE2-781D-4444-9C7C-B41F488581F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="注意事項" sheetId="2" r:id="rId1"/>
@@ -23,6 +22,7 @@
     <sheet name="シーン" sheetId="7" r:id="rId8"/>
     <sheet name="シーン移動" sheetId="8" r:id="rId9"/>
     <sheet name="タスク" sheetId="10" r:id="rId10"/>
+    <sheet name="動画の構成" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="275">
   <si>
     <t>・移動</t>
     <rPh sb="1" eb="3">
@@ -3292,11 +3292,196 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>タイトルからログインする映像</t>
+    <rPh sb="12" eb="14">
+      <t>エイゾウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>デスクトップでウイルスに気付かせる</t>
+    <rPh sb="12" eb="14">
+      <t>キヅ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Stage1でウイルスの姿とファイルに従うことを見せる</t>
+    <rPh sb="12" eb="13">
+      <t>スガタ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゴールと失敗した時のブルスクを見せる</t>
+    <rPh sb="4" eb="6">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2匹以上のステージや、ページ切り替えのステージを見せる</t>
+    <rPh sb="1" eb="2">
+      <t>ヒキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「今日はパソコンで作業をしよう」</t>
+    <rPh sb="1" eb="3">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「あれ？ファイルの色が大変なことに！」</t>
+    <rPh sb="9" eb="10">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>タイヘン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「パソコンにウイルスが入ってしまった！」</t>
+    <rPh sb="11" eb="12">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「でもこの子、新しいファイルを見せるとついて来るぞ？」</t>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「これでごみ箱まで誘導すれば除去できるかも！？」</t>
+    <rPh sb="6" eb="7">
+      <t>バコ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ユウドウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジョキョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ウイルスをパソコンの機能を使って誘導し、除去しよう</t>
+    <rPh sb="10" eb="12">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ユウドウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジョキョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ステージにはブロックがあるので、形を変えたり増やしたりして道を作り ウイルスをごみ箱まで誘導しよう</t>
+    <rPh sb="16" eb="17">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ミチ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>バコ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ユウドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ステージから落としたり、フォルダに当たってしまうと感染してしまう…</t>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カンセン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>上手く案内して、あなたのパソコンを取り戻そう！</t>
+    <rPh sb="0" eb="2">
+      <t>ウマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>アンナイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3619,32 +3804,29 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3652,10 +3834,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27646,49 +27831,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>190</v>
       </c>
@@ -27700,68 +27885,68 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q34"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="22" t="s">
+    <row r="1" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18" t="s">
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="19"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="17"/>
     </row>
-    <row r="3" spans="2:17" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="15" t="s">
+    <row r="3" spans="2:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13" t="s">
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="20"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="19"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B4" s="23" t="s">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B4" s="13" t="s">
         <v>204</v>
       </c>
       <c r="C4" s="14"/>
@@ -27784,10 +27969,10 @@
       </c>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
-      <c r="Q4" s="21"/>
+      <c r="Q4" s="20"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B5" s="23" t="s">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B5" s="13" t="s">
         <v>203</v>
       </c>
       <c r="C5" s="14"/>
@@ -27810,10 +27995,10 @@
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
-      <c r="Q5" s="21"/>
+      <c r="Q5" s="20"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B6" s="16" t="s">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B6" s="23" t="s">
         <v>259</v>
       </c>
       <c r="C6" s="14"/>
@@ -27836,35 +28021,35 @@
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
-      <c r="Q6" s="21"/>
+      <c r="Q6" s="20"/>
     </row>
-    <row r="7" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="12" t="s">
+    <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11" t="s">
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11" t="s">
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11" t="s">
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="17"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="16"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
         <v>218</v>
       </c>
@@ -27876,7 +28061,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>229</v>
       </c>
@@ -27884,17 +28069,17 @@
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>207</v>
       </c>
@@ -27902,12 +28087,12 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>209</v>
       </c>
@@ -27915,32 +28100,32 @@
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C22" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B24" s="6" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>212</v>
       </c>
@@ -27948,22 +28133,22 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C26" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C28" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>216</v>
       </c>
@@ -27971,17 +28156,17 @@
         <v>217</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C31" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C32" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>214</v>
       </c>
@@ -27991,19 +28176,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -28015,6 +28187,19 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28022,155 +28207,239 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>274</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A39"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -28182,59 +28451,59 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>166</v>
       </c>
@@ -28246,139 +28515,139 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="28" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="31" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>235</v>
       </c>
@@ -28390,170 +28659,170 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="8" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" s="7"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" s="7"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" s="7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" s="7"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" s="7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
         <v>239</v>
       </c>
@@ -28591,32 +28860,32 @@
       <c r="AG65" s="1"/>
       <c r="AH65" s="1"/>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>147</v>
       </c>
@@ -28630,297 +28899,297 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A85"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="7"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" s="7"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" s="7"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="7"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" s="7"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" s="7"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" s="7"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" s="7"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" s="7"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" s="7"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" s="7"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" s="7"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" s="7"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" s="7"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A40" s="7"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A42" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A43" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A44" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A45" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A46" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A48" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A49" s="7"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A50" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A51" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A52" s="7"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A53" s="7"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A54" s="7"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A55" s="7"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A56" s="7"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A57" s="7"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A58" s="7"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A62" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="81" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>12</v>
       </c>
@@ -28934,269 +29203,269 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A136"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A64" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="74" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="120" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A120" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="121" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A121" s="10" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>182</v>
       </c>
@@ -29210,89 +29479,89 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V115"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="36" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="77" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.4">
       <c r="V79" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.4">
       <c r="V80" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.4">
       <c r="V81" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.4">
       <c r="V83" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.4">
       <c r="V84" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.4">
       <c r="V85" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="93" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A93" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>247</v>
       </c>
@@ -29306,14 +29575,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>148</v>
       </c>

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="3"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="注意事項" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="278">
   <si>
     <t>・移動</t>
     <rPh sb="1" eb="3">
@@ -3134,13 +3134,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>調整中のバグ</t>
-    <rPh sb="0" eb="3">
-      <t>チョウセイチュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ブルースクリーンのコメント調整</t>
     <rPh sb="13" eb="15">
       <t>チョウセイ</t>
@@ -3474,6 +3467,70 @@
     </rPh>
     <rPh sb="19" eb="20">
       <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・時間経過で使えるブロックが減っていく(CPUが上がっていく)</t>
+    <rPh sb="2" eb="6">
+      <t>ジカンケイカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヘ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・主人公(複数)が移動中でもファイルが消えてしまう</t>
+    <rPh sb="2" eb="5">
+      <t>シュジンコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>イドウチュウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・時間経過と共にダイアログボックスが画面内に表示される(背景とステージの間)</t>
+    <rPh sb="2" eb="6">
+      <t>ジカンケイカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トモ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>アイダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・リードミーについて考える</t>
+    <rPh sb="11" eb="12">
+      <t>カンガ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3804,29 +3861,32 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3834,13 +3894,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6746,8 +6803,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20954" y="4899660"/>
-          <a:ext cx="3055621" cy="1828800"/>
+          <a:off x="20954" y="5099685"/>
+          <a:ext cx="3116581" cy="1905000"/>
           <a:chOff x="68579" y="3489960"/>
           <a:chExt cx="3055621" cy="1828800"/>
         </a:xfrm>
@@ -6870,8 +6927,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="104775" y="11795760"/>
-          <a:ext cx="7056120" cy="2148840"/>
+          <a:off x="104775" y="12281535"/>
+          <a:ext cx="7208520" cy="2244090"/>
           <a:chOff x="152400" y="6766560"/>
           <a:chExt cx="7056120" cy="2209800"/>
         </a:xfrm>
@@ -7316,8 +7373,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="47625" y="15853411"/>
-          <a:ext cx="9721215" cy="1846263"/>
+          <a:off x="47625" y="16510636"/>
+          <a:ext cx="9934575" cy="1922463"/>
           <a:chOff x="47625" y="13862686"/>
           <a:chExt cx="9934575" cy="1922463"/>
         </a:xfrm>
@@ -8292,8 +8349,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="49529" y="7233286"/>
-          <a:ext cx="6547264" cy="2400301"/>
+          <a:off x="49529" y="7528561"/>
+          <a:ext cx="6684424" cy="2505076"/>
           <a:chOff x="49529" y="7157086"/>
           <a:chExt cx="6684424" cy="2505076"/>
         </a:xfrm>
@@ -9227,8 +9284,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="220980" y="670560"/>
-          <a:ext cx="7734300" cy="3947160"/>
+          <a:off x="220980" y="689610"/>
+          <a:ext cx="7901940" cy="4118610"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3947160"/>
         </a:xfrm>
@@ -10262,8 +10319,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="228600" y="18192750"/>
-          <a:ext cx="7734300" cy="3981451"/>
+          <a:off x="228600" y="18945225"/>
+          <a:ext cx="7901940" cy="4152901"/>
           <a:chOff x="228600" y="12992100"/>
           <a:chExt cx="7901940" cy="4152901"/>
         </a:xfrm>
@@ -10820,8 +10877,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9022080" y="18192750"/>
-          <a:ext cx="7738110" cy="3955286"/>
+          <a:off x="9220200" y="18945225"/>
+          <a:ext cx="7905750" cy="4117211"/>
           <a:chOff x="9220200" y="12992100"/>
           <a:chExt cx="7905750" cy="4118610"/>
         </a:xfrm>
@@ -11766,8 +11823,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="266700" y="22783800"/>
-          <a:ext cx="7734300" cy="3981451"/>
+          <a:off x="266700" y="23726775"/>
+          <a:ext cx="7901940" cy="4152901"/>
           <a:chOff x="228600" y="12992100"/>
           <a:chExt cx="7901940" cy="4152901"/>
         </a:xfrm>
@@ -12339,8 +12396,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9022080" y="22774275"/>
-          <a:ext cx="7734300" cy="3981451"/>
+          <a:off x="9220200" y="23717250"/>
+          <a:ext cx="7901940" cy="4152901"/>
           <a:chOff x="228600" y="12992100"/>
           <a:chExt cx="7901940" cy="4152901"/>
         </a:xfrm>
@@ -12912,8 +12969,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10591800" y="25078958"/>
-          <a:ext cx="2748915" cy="1404419"/>
+          <a:off x="10820400" y="26117183"/>
+          <a:ext cx="2809875" cy="1461569"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3939540"/>
         </a:xfrm>
@@ -13156,8 +13213,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="17823724" y="22763389"/>
-          <a:ext cx="7724503" cy="3980634"/>
+          <a:off x="18219964" y="23706364"/>
+          <a:ext cx="7907383" cy="4150179"/>
           <a:chOff x="228600" y="12992100"/>
           <a:chExt cx="7901940" cy="4152901"/>
         </a:xfrm>
@@ -13620,8 +13677,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="18718802" y="23508941"/>
-          <a:ext cx="5801678" cy="2961532"/>
+          <a:off x="19130282" y="24480491"/>
+          <a:ext cx="5938838" cy="3085357"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3939540"/>
         </a:xfrm>
@@ -13986,8 +14043,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="26813145" y="22742977"/>
-          <a:ext cx="7711987" cy="3937907"/>
+          <a:off x="27407505" y="23685952"/>
+          <a:ext cx="7894867" cy="4099832"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3939540"/>
         </a:xfrm>
@@ -14987,8 +15044,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20005833" y="26491406"/>
-          <a:ext cx="311023" cy="221386"/>
+          <a:off x="20447793" y="27586781"/>
+          <a:ext cx="326263" cy="230911"/>
           <a:chOff x="18484453" y="23336250"/>
           <a:chExt cx="325072" cy="230911"/>
         </a:xfrm>
@@ -15396,8 +15453,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8539518" y="27755175"/>
-          <a:ext cx="2323223" cy="1833448"/>
+          <a:off x="8722398" y="28907700"/>
+          <a:ext cx="2384183" cy="1909648"/>
           <a:chOff x="6551820" y="25135800"/>
           <a:chExt cx="2375218" cy="1887236"/>
         </a:xfrm>
@@ -15647,8 +15704,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12604944" y="27769341"/>
-          <a:ext cx="2323223" cy="1785060"/>
+          <a:off x="12879264" y="28921866"/>
+          <a:ext cx="2384183" cy="1861260"/>
           <a:chOff x="9798768" y="22785525"/>
           <a:chExt cx="2375218" cy="1838848"/>
         </a:xfrm>
@@ -16384,8 +16441,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4396859" y="27742448"/>
-          <a:ext cx="2323223" cy="1785060"/>
+          <a:off x="4488299" y="28894973"/>
+          <a:ext cx="2384183" cy="1861260"/>
           <a:chOff x="3429344" y="22781043"/>
           <a:chExt cx="2375218" cy="1838848"/>
         </a:xfrm>
@@ -18384,8 +18441,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4722494" y="31261049"/>
-          <a:ext cx="2083628" cy="2306945"/>
+          <a:off x="4829174" y="32556449"/>
+          <a:ext cx="2129348" cy="2402195"/>
           <a:chOff x="4819649" y="30708599"/>
           <a:chExt cx="2129348" cy="2402195"/>
         </a:xfrm>
@@ -18739,8 +18796,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8850629" y="31184849"/>
-          <a:ext cx="1670555" cy="1638300"/>
+          <a:off x="9048749" y="32480249"/>
+          <a:ext cx="1701035" cy="1704975"/>
           <a:chOff x="5762624" y="30537149"/>
           <a:chExt cx="1701035" cy="1704975"/>
         </a:xfrm>
@@ -21064,8 +21121,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6244590" y="9039225"/>
-          <a:ext cx="5605060" cy="2847080"/>
+          <a:off x="6381750" y="9410700"/>
+          <a:ext cx="5726980" cy="2969000"/>
           <a:chOff x="6391275" y="8886825"/>
           <a:chExt cx="5726980" cy="2969000"/>
         </a:xfrm>
@@ -22411,8 +22468,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5650230" y="13782675"/>
-          <a:ext cx="5605060" cy="2854700"/>
+          <a:off x="5772150" y="14354175"/>
+          <a:ext cx="5726980" cy="2969000"/>
           <a:chOff x="6391275" y="8886825"/>
           <a:chExt cx="5726980" cy="2969000"/>
         </a:xfrm>
@@ -26101,8 +26158,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13666694" y="21653687"/>
-          <a:ext cx="4738743" cy="2277036"/>
+          <a:off x="13971494" y="22549037"/>
+          <a:ext cx="4845423" cy="2372286"/>
           <a:chOff x="13837024" y="22868404"/>
           <a:chExt cx="4829735" cy="2344271"/>
         </a:xfrm>
@@ -27888,65 +27945,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q34"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12" t="s">
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12" t="s">
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="17"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="19"/>
     </row>
     <row r="3" spans="2:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18" t="s">
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18" t="s">
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="19"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="20"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="23" t="s">
         <v>204</v>
       </c>
       <c r="C4" s="14"/>
@@ -27969,10 +28026,10 @@
       </c>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
-      <c r="Q4" s="20"/>
+      <c r="Q4" s="21"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="23" t="s">
         <v>203</v>
       </c>
       <c r="C5" s="14"/>
@@ -27995,17 +28052,17 @@
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
-      <c r="Q5" s="20"/>
+      <c r="Q5" s="21"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="23" t="s">
-        <v>259</v>
+      <c r="B6" s="16" t="s">
+        <v>258</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
@@ -28021,45 +28078,42 @@
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
-      <c r="Q6" s="20"/>
+      <c r="Q6" s="21"/>
     </row>
     <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="21" t="s">
-        <v>260</v>
+      <c r="B7" s="12" t="s">
+        <v>259</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15" t="s">
-        <v>251</v>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11" t="s">
+        <v>250</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15" t="s">
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15" t="s">
-        <v>249</v>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11" t="s">
+        <v>248</v>
       </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="16"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="17"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
         <v>218</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="O10" s="6"/>
-      <c r="P10" s="6" t="s">
-        <v>258</v>
-      </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
@@ -28068,15 +28122,26 @@
       <c r="C11" t="s">
         <v>206</v>
       </c>
+      <c r="K11" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
         <v>219</v>
       </c>
+      <c r="K12" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
         <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="K14" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.4">
@@ -28090,6 +28155,9 @@
     <row r="16" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
         <v>221</v>
+      </c>
+      <c r="K16" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.4">
@@ -28176,6 +28244,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -28187,19 +28268,6 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28217,72 +28285,72 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -28518,7 +28586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -29518,32 +29586,32 @@
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.4">
       <c r="V79" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.4">
       <c r="V80" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.4">
       <c r="V81" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.4">
       <c r="V83" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.4">
       <c r="V84" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.4">
       <c r="V85" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="93" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="9"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="注意事項" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="274">
   <si>
     <t>・移動</t>
     <rPh sb="1" eb="3">
@@ -3467,70 +3467,6 @@
     </rPh>
     <rPh sb="19" eb="20">
       <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　・時間経過で使えるブロックが減っていく(CPUが上がっていく)</t>
-    <rPh sb="2" eb="6">
-      <t>ジカンケイカ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ヘ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　・主人公(複数)が移動中でもファイルが消えてしまう</t>
-    <rPh sb="2" eb="5">
-      <t>シュジンコウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>イドウチュウ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　・時間経過と共にダイアログボックスが画面内に表示される(背景とステージの間)</t>
-    <rPh sb="2" eb="6">
-      <t>ジカンケイカ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>トモ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ハイケイ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>アイダ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　・リードミーについて考える</t>
-    <rPh sb="11" eb="12">
-      <t>カンガ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3861,32 +3797,29 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3894,10 +3827,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5401,8 +5337,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5806441" y="17403777"/>
-          <a:ext cx="1369695" cy="1571927"/>
+          <a:off x="5928361" y="18127677"/>
+          <a:ext cx="1400175" cy="1638602"/>
           <a:chOff x="12134850" y="14182422"/>
           <a:chExt cx="1400175" cy="1638602"/>
         </a:xfrm>
@@ -6030,8 +5966,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6484621" y="20029170"/>
-          <a:ext cx="2208383" cy="1809749"/>
+          <a:off x="6621781" y="20857845"/>
+          <a:ext cx="2254103" cy="1885949"/>
           <a:chOff x="21002625" y="13639800"/>
           <a:chExt cx="2254103" cy="1885949"/>
         </a:xfrm>
@@ -6313,8 +6249,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="365760" y="14531340"/>
-          <a:ext cx="5135881" cy="2228851"/>
+          <a:off x="365760" y="15131415"/>
+          <a:ext cx="5257801" cy="2324101"/>
           <a:chOff x="723899" y="13554074"/>
           <a:chExt cx="5257801" cy="2800351"/>
         </a:xfrm>
@@ -27945,65 +27881,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18" t="s">
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="19"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="17"/>
     </row>
     <row r="3" spans="2:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13" t="s">
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="20"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="19"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="13" t="s">
         <v>204</v>
       </c>
       <c r="C4" s="14"/>
@@ -28026,10 +27962,10 @@
       </c>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
-      <c r="Q4" s="21"/>
+      <c r="Q4" s="20"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="13" t="s">
         <v>203</v>
       </c>
       <c r="C5" s="14"/>
@@ -28052,10 +27988,10 @@
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
-      <c r="Q5" s="21"/>
+      <c r="Q5" s="20"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="23" t="s">
         <v>258</v>
       </c>
       <c r="C6" s="14"/>
@@ -28078,33 +28014,33 @@
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
-      <c r="Q6" s="21"/>
+      <c r="Q6" s="20"/>
     </row>
     <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11" t="s">
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11" t="s">
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11" t="s">
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="17"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="16"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
@@ -28122,26 +28058,15 @@
       <c r="C11" t="s">
         <v>206</v>
       </c>
-      <c r="K11" t="s">
-        <v>276</v>
-      </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
         <v>219</v>
       </c>
-      <c r="K12" t="s">
-        <v>274</v>
-      </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
         <v>220</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="K14" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.4">
@@ -28155,9 +28080,6 @@
     <row r="16" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
         <v>221</v>
-      </c>
-      <c r="K16" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.4">
@@ -28244,19 +28166,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -28268,6 +28177,19 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28586,7 +28508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="3"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="注意事項" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="275">
   <si>
     <t>・移動</t>
     <rPh sb="1" eb="3">
@@ -3467,6 +3467,13 @@
     </rPh>
     <rPh sb="19" eb="20">
       <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・ブルスクにイラストを入れれるようにする</t>
+    <rPh sb="12" eb="13">
+      <t>イ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3797,29 +3804,32 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3827,13 +3837,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27881,65 +27888,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q34"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12" t="s">
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12" t="s">
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="17"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="19"/>
     </row>
     <row r="3" spans="2:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18" t="s">
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18" t="s">
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="19"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="20"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="23" t="s">
         <v>204</v>
       </c>
       <c r="C4" s="14"/>
@@ -27962,10 +27969,10 @@
       </c>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
-      <c r="Q4" s="20"/>
+      <c r="Q4" s="21"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="23" t="s">
         <v>203</v>
       </c>
       <c r="C5" s="14"/>
@@ -27988,10 +27995,10 @@
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
-      <c r="Q5" s="20"/>
+      <c r="Q5" s="21"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="16" t="s">
         <v>258</v>
       </c>
       <c r="C6" s="14"/>
@@ -28014,33 +28021,33 @@
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
-      <c r="Q6" s="20"/>
+      <c r="Q6" s="21"/>
     </row>
     <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15" t="s">
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15" t="s">
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="16"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="17"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
@@ -28057,6 +28064,9 @@
       </c>
       <c r="C11" t="s">
         <v>206</v>
+      </c>
+      <c r="K11" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.4">
@@ -28166,6 +28176,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -28177,19 +28200,6 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28508,7 +28518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="9"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="注意事項" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="274">
   <si>
     <t>・移動</t>
     <rPh sb="1" eb="3">
@@ -3467,13 +3467,6 @@
     </rPh>
     <rPh sb="19" eb="20">
       <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　・ブルスクにイラストを入れれるようにする</t>
-    <rPh sb="12" eb="13">
-      <t>イ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3804,32 +3797,29 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3837,10 +3827,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27888,65 +27881,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18" t="s">
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="19"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="17"/>
     </row>
     <row r="3" spans="2:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13" t="s">
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="20"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="19"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="13" t="s">
         <v>204</v>
       </c>
       <c r="C4" s="14"/>
@@ -27969,10 +27962,10 @@
       </c>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
-      <c r="Q4" s="21"/>
+      <c r="Q4" s="20"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="13" t="s">
         <v>203</v>
       </c>
       <c r="C5" s="14"/>
@@ -27995,10 +27988,10 @@
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
-      <c r="Q5" s="21"/>
+      <c r="Q5" s="20"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="23" t="s">
         <v>258</v>
       </c>
       <c r="C6" s="14"/>
@@ -28021,33 +28014,33 @@
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
-      <c r="Q6" s="21"/>
+      <c r="Q6" s="20"/>
     </row>
     <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11" t="s">
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11" t="s">
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11" t="s">
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="17"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="16"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
@@ -28064,9 +28057,6 @@
       </c>
       <c r="C11" t="s">
         <v>206</v>
-      </c>
-      <c r="K11" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.4">
@@ -28176,19 +28166,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -28200,6 +28177,19 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28295,7 +28285,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A39"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -28518,7 +28508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>

--- a/JapanGameContest2023/仕様書/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書/仕様書.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA4\Desktop\Game\JapanGameContest2023\仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\Game\4年\GameContest2023\JapanGameContest2023\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D14F853-AB3E-4640-AF75-D1C276AFC1BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="3"/>
+    <workbookView xWindow="2772" yWindow="756" windowWidth="18216" windowHeight="10524" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="注意事項" sheetId="2" r:id="rId1"/>
@@ -3474,7 +3475,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3797,29 +3798,32 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3827,13 +3831,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5337,8 +5338,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5928361" y="18127677"/>
-          <a:ext cx="1400175" cy="1638602"/>
+          <a:off x="5806441" y="17403777"/>
+          <a:ext cx="1369695" cy="1571927"/>
           <a:chOff x="12134850" y="14182422"/>
           <a:chExt cx="1400175" cy="1638602"/>
         </a:xfrm>
@@ -5966,8 +5967,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6621781" y="20857845"/>
-          <a:ext cx="2254103" cy="1885949"/>
+          <a:off x="6484621" y="20029170"/>
+          <a:ext cx="2208383" cy="1809749"/>
           <a:chOff x="21002625" y="13639800"/>
           <a:chExt cx="2254103" cy="1885949"/>
         </a:xfrm>
@@ -6249,8 +6250,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="365760" y="15131415"/>
-          <a:ext cx="5257801" cy="2324101"/>
+          <a:off x="365760" y="14531340"/>
+          <a:ext cx="5135881" cy="2228851"/>
           <a:chOff x="723899" y="13554074"/>
           <a:chExt cx="5257801" cy="2800351"/>
         </a:xfrm>
@@ -6739,8 +6740,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20954" y="5099685"/>
-          <a:ext cx="3116581" cy="1905000"/>
+          <a:off x="20954" y="4899660"/>
+          <a:ext cx="3055621" cy="1828800"/>
           <a:chOff x="68579" y="3489960"/>
           <a:chExt cx="3055621" cy="1828800"/>
         </a:xfrm>
@@ -6863,8 +6864,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="104775" y="12281535"/>
-          <a:ext cx="7208520" cy="2244090"/>
+          <a:off x="104775" y="11795760"/>
+          <a:ext cx="7056120" cy="2148840"/>
           <a:chOff x="152400" y="6766560"/>
           <a:chExt cx="7056120" cy="2209800"/>
         </a:xfrm>
@@ -7309,8 +7310,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="47625" y="16510636"/>
-          <a:ext cx="9934575" cy="1922463"/>
+          <a:off x="47625" y="15853411"/>
+          <a:ext cx="9721215" cy="1846263"/>
           <a:chOff x="47625" y="13862686"/>
           <a:chExt cx="9934575" cy="1922463"/>
         </a:xfrm>
@@ -8285,8 +8286,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="49529" y="7528561"/>
-          <a:ext cx="6684424" cy="2505076"/>
+          <a:off x="49529" y="7233286"/>
+          <a:ext cx="6547264" cy="2400301"/>
           <a:chOff x="49529" y="7157086"/>
           <a:chExt cx="6684424" cy="2505076"/>
         </a:xfrm>
@@ -9220,8 +9221,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="220980" y="689610"/>
-          <a:ext cx="7901940" cy="4118610"/>
+          <a:off x="220980" y="670560"/>
+          <a:ext cx="7734300" cy="3947160"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3947160"/>
         </a:xfrm>
@@ -10255,8 +10256,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="228600" y="18945225"/>
-          <a:ext cx="7901940" cy="4152901"/>
+          <a:off x="228600" y="18192750"/>
+          <a:ext cx="7734300" cy="3981451"/>
           <a:chOff x="228600" y="12992100"/>
           <a:chExt cx="7901940" cy="4152901"/>
         </a:xfrm>
@@ -10813,8 +10814,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9220200" y="18945225"/>
-          <a:ext cx="7905750" cy="4117211"/>
+          <a:off x="9022080" y="18192750"/>
+          <a:ext cx="7738110" cy="3955286"/>
           <a:chOff x="9220200" y="12992100"/>
           <a:chExt cx="7905750" cy="4118610"/>
         </a:xfrm>
@@ -11759,8 +11760,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="266700" y="23726775"/>
-          <a:ext cx="7901940" cy="4152901"/>
+          <a:off x="266700" y="22783800"/>
+          <a:ext cx="7734300" cy="3981451"/>
           <a:chOff x="228600" y="12992100"/>
           <a:chExt cx="7901940" cy="4152901"/>
         </a:xfrm>
@@ -12332,8 +12333,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9220200" y="23717250"/>
-          <a:ext cx="7901940" cy="4152901"/>
+          <a:off x="9022080" y="22774275"/>
+          <a:ext cx="7734300" cy="3981451"/>
           <a:chOff x="228600" y="12992100"/>
           <a:chExt cx="7901940" cy="4152901"/>
         </a:xfrm>
@@ -12905,8 +12906,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10820400" y="26117183"/>
-          <a:ext cx="2809875" cy="1461569"/>
+          <a:off x="10591800" y="25078958"/>
+          <a:ext cx="2748915" cy="1404419"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3939540"/>
         </a:xfrm>
@@ -13149,8 +13150,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="18219964" y="23706364"/>
-          <a:ext cx="7907383" cy="4150179"/>
+          <a:off x="17823724" y="22763389"/>
+          <a:ext cx="7724503" cy="3980634"/>
           <a:chOff x="228600" y="12992100"/>
           <a:chExt cx="7901940" cy="4152901"/>
         </a:xfrm>
@@ -13613,8 +13614,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="19130282" y="24480491"/>
-          <a:ext cx="5938838" cy="3085357"/>
+          <a:off x="18718802" y="23508941"/>
+          <a:ext cx="5801678" cy="2961532"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3939540"/>
         </a:xfrm>
@@ -13979,8 +13980,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="27407505" y="23685952"/>
-          <a:ext cx="7894867" cy="4099832"/>
+          <a:off x="26813145" y="22742977"/>
+          <a:ext cx="7711987" cy="3937907"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3939540"/>
         </a:xfrm>
@@ -14980,8 +14981,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20447793" y="27586781"/>
-          <a:ext cx="326263" cy="230911"/>
+          <a:off x="20005833" y="26491406"/>
+          <a:ext cx="311023" cy="221386"/>
           <a:chOff x="18484453" y="23336250"/>
           <a:chExt cx="325072" cy="230911"/>
         </a:xfrm>
@@ -15389,8 +15390,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8722398" y="28907700"/>
-          <a:ext cx="2384183" cy="1909648"/>
+          <a:off x="8539518" y="27755175"/>
+          <a:ext cx="2323223" cy="1833448"/>
           <a:chOff x="6551820" y="25135800"/>
           <a:chExt cx="2375218" cy="1887236"/>
         </a:xfrm>
@@ -15640,8 +15641,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12879264" y="28921866"/>
-          <a:ext cx="2384183" cy="1861260"/>
+          <a:off x="12604944" y="27769341"/>
+          <a:ext cx="2323223" cy="1785060"/>
           <a:chOff x="9798768" y="22785525"/>
           <a:chExt cx="2375218" cy="1838848"/>
         </a:xfrm>
@@ -16377,8 +16378,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4488299" y="28894973"/>
-          <a:ext cx="2384183" cy="1861260"/>
+          <a:off x="4396859" y="27742448"/>
+          <a:ext cx="2323223" cy="1785060"/>
           <a:chOff x="3429344" y="22781043"/>
           <a:chExt cx="2375218" cy="1838848"/>
         </a:xfrm>
@@ -18377,8 +18378,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4829174" y="32556449"/>
-          <a:ext cx="2129348" cy="2402195"/>
+          <a:off x="4722494" y="31261049"/>
+          <a:ext cx="2083628" cy="2306945"/>
           <a:chOff x="4819649" y="30708599"/>
           <a:chExt cx="2129348" cy="2402195"/>
         </a:xfrm>
@@ -18732,8 +18733,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9048749" y="32480249"/>
-          <a:ext cx="1701035" cy="1704975"/>
+          <a:off x="8850629" y="31184849"/>
+          <a:ext cx="1670555" cy="1638300"/>
           <a:chOff x="5762624" y="30537149"/>
           <a:chExt cx="1701035" cy="1704975"/>
         </a:xfrm>
@@ -21057,8 +21058,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6381750" y="9410700"/>
-          <a:ext cx="5726980" cy="2969000"/>
+          <a:off x="6244590" y="9039225"/>
+          <a:ext cx="5605060" cy="2847080"/>
           <a:chOff x="6391275" y="8886825"/>
           <a:chExt cx="5726980" cy="2969000"/>
         </a:xfrm>
@@ -22404,8 +22405,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5772150" y="14354175"/>
-          <a:ext cx="5726980" cy="2969000"/>
+          <a:off x="5650230" y="13782675"/>
+          <a:ext cx="5605060" cy="2854700"/>
           <a:chOff x="6391275" y="8886825"/>
           <a:chExt cx="5726980" cy="2969000"/>
         </a:xfrm>
@@ -26094,8 +26095,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13971494" y="22549037"/>
-          <a:ext cx="4845423" cy="2372286"/>
+          <a:off x="13666694" y="21653687"/>
+          <a:ext cx="4738743" cy="2277036"/>
           <a:chOff x="13837024" y="22868404"/>
           <a:chExt cx="4829735" cy="2344271"/>
         </a:xfrm>
@@ -27824,49 +27825,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>190</v>
       </c>
@@ -27878,68 +27879,68 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B1:Q34"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="11" t="s">
+    <row r="1" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12" t="s">
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12" t="s">
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="17"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="19"/>
     </row>
-    <row r="3" spans="2:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="22" t="s">
+    <row r="3" spans="2:17" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18" t="s">
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18" t="s">
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="19"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="20"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B4" s="13" t="s">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B4" s="23" t="s">
         <v>204</v>
       </c>
       <c r="C4" s="14"/>
@@ -27962,10 +27963,10 @@
       </c>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
-      <c r="Q4" s="20"/>
+      <c r="Q4" s="21"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B5" s="13" t="s">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B5" s="23" t="s">
         <v>203</v>
       </c>
       <c r="C5" s="14"/>
@@ -27988,10 +27989,10 @@
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
-      <c r="Q5" s="20"/>
+      <c r="Q5" s="21"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="23" t="s">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B6" s="16" t="s">
         <v>258</v>
       </c>
       <c r="C6" s="14"/>
@@ -28014,35 +28015,35 @@
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
-      <c r="Q6" s="20"/>
+      <c r="Q6" s="21"/>
     </row>
-    <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="21" t="s">
+    <row r="7" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B7" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15" t="s">
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15" t="s">
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="16"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="17"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B10" s="6" t="s">
         <v>218</v>
       </c>
@@ -28051,7 +28052,7 @@
       </c>
       <c r="O10" s="6"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>229</v>
       </c>
@@ -28059,17 +28060,17 @@
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>207</v>
       </c>
@@ -28077,12 +28078,12 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>209</v>
       </c>
@@ -28090,32 +28091,32 @@
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C19" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C20" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C21" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C22" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B24" s="6" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>212</v>
       </c>
@@ -28123,22 +28124,22 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C26" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C27" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C28" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
         <v>216</v>
       </c>
@@ -28146,17 +28147,17 @@
         <v>217</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C31" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C32" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
         <v>214</v>
       </c>
@@ -28166,6 +28167,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -28177,19 +28191,6 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28198,79 +28199,79 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B2:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>273</v>
       </c>
@@ -28282,154 +28283,154 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A39"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -28441,59 +28442,59 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>166</v>
       </c>
@@ -28505,139 +28506,139 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="28" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="31" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>235</v>
       </c>
@@ -28649,170 +28650,170 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AH98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" s="7"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" s="7"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" s="7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" s="7"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" s="7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A65" s="2" t="s">
         <v>239</v>
       </c>
@@ -28850,32 +28851,32 @@
       <c r="AG65" s="1"/>
       <c r="AH65" s="1"/>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>147</v>
       </c>
@@ -28889,297 +28890,297 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A85"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="7"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" s="7"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" s="7"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="7"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" s="7"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" s="7"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" s="7"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" s="7"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" s="7"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" s="7"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" s="7"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" s="7"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" s="7"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" s="7"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40" s="7"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A44" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A45" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A46" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A48" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49" s="7"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52" s="7"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" s="7"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A54" s="7"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A55" s="7"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A56" s="7"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A57" s="7"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A58" s="7"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A62" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="81" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A81" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>12</v>
       </c>
@@ -29193,269 +29194,269 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A136"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A64" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="74" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A74" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A78" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="120" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A120" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="121" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A121" s="10" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>182</v>
       </c>
@@ -29469,89 +29470,89 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:V115"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="36" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A58" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="77" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A77" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.45">
       <c r="V79" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.45">
       <c r="V80" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.45">
       <c r="V81" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.45">
       <c r="V83" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.45">
       <c r="V84" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.45">
       <c r="V85" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="93" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A93" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>247</v>
       </c>
@@ -29565,14 +29566,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>148</v>
       </c>
